--- a/Code/Results/Cases/Case_2_34/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_34/res_line/pl_mw.xlsx
@@ -462,7 +462,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -614,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>1.139311062524627</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>1.390742831773494</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -690,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>1.895061171842784</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.275587181990801</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>2.504295469236098</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.667416158031969</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.562285531758789</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>2.170038921572853</v>
       </c>
       <c r="G24">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_34/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_34/res_line/pl_mw.xlsx
@@ -462,7 +462,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.260820407314654</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.090973950927989</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -614,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.139311062524627</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.390742831773494</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -690,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.895061171842784</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>2.275587181990801</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.504295469236098</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.562285531758775</v>
+        <v>2.562285531758789</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.170038921572853</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_34/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_34/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -444,8 +447,11 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -482,8 +488,11 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -520,8 +529,11 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -558,8 +570,11 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -596,8 +611,11 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -634,8 +652,11 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -672,8 +693,11 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -710,8 +734,11 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -748,8 +775,11 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -786,8 +816,11 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -824,8 +857,11 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -862,8 +898,11 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -900,8 +939,11 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -938,8 +980,11 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -976,8 +1021,11 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1014,8 +1062,11 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1052,8 +1103,11 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1090,8 +1144,11 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1128,8 +1185,11 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1166,8 +1226,11 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1204,8 +1267,11 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1242,8 +1308,11 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1280,8 +1349,11 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1316,6 +1388,9 @@
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_34/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_34/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>4.370796735641477</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1.267205667821941</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.488296408652062</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007481275365235556</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -450,28 +456,34 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0.4739033237520829</v>
+      </c>
+      <c r="O2">
+        <v>1.469012074183965</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>3.749015215100371</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1.086945181676754</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1.265261478265387</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007584092129642462</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -491,28 +503,34 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0.5235507414549403</v>
+      </c>
+      <c r="O3">
+        <v>1.283673972995089</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>3.375717090513092</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.9787786034586645</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1.133000716902259</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.000764817383078203</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -532,28 +550,34 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0.5559333704451497</v>
+      </c>
+      <c r="O4">
+        <v>1.175685576901614</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>3.22537107652056</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.9352191478791099</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1.080075952794701</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007674566452256766</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -573,28 +597,34 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0.5695711635600276</v>
+      </c>
+      <c r="O5">
+        <v>1.132942570234576</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>3.200503915664171</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.9280144677081807</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1.071341115279154</v>
       </c>
       <c r="F6">
         <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007678966828631358</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -614,28 +644,34 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0.5718614149639585</v>
+      </c>
+      <c r="O6">
+        <v>1.125916090834764</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>3.373682719419435</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.9781891815520396</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1.132283267551315</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>1.139311062524627</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007648528592924499</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -655,28 +691,34 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0.5561155506362141</v>
+      </c>
+      <c r="O7">
+        <v>1.175104259154324</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>4.154417952803158</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1.204457285887884</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1.410288781094494</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007516554418048184</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -696,28 +738,34 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0.4906045706138933</v>
+      </c>
+      <c r="O8">
+        <v>1.403774450737373</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>5.771600034545258</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1.67414711268799</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>2.003767692678522</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>1.895061171845313</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007263210151161952</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -737,28 +785,34 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0.3791012662956739</v>
+      </c>
+      <c r="O9">
+        <v>1.908788348909098</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>7.044271292906274</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>2.045365900390152</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>2.488733959954217</v>
       </c>
       <c r="F10">
-        <v>2.275587181990801</v>
+        <v>2.275587181990971</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007076847897262563</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -778,28 +832,34 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0.3107255136207314</v>
+      </c>
+      <c r="O10">
+        <v>2.332106986389661</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>7.65090956950678</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>2.222951123320456</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>2.725914678370145</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0006990976590685254</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -819,28 +879,34 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0.2834961823671662</v>
+      </c>
+      <c r="O11">
+        <v>2.541230453468316</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>7.885619684888127</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>2.291783552073809</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>2.818780832423187</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0006958188558379863</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -860,28 +926,34 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0.2738444271403964</v>
+      </c>
+      <c r="O12">
+        <v>2.623365648720338</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>7.834830025202962</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>2.276882576407047</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>2.798632042339108</v>
       </c>
       <c r="F13">
         <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.000696526418761422</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -901,28 +973,34 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0.2758918786427884</v>
+      </c>
+      <c r="O13">
+        <v>2.605534888840808</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>7.670112661645305</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>2.228580046546597</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>2.733489179228002</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0006988285270774774</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -942,28 +1020,34 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0.2826882362839598</v>
+      </c>
+      <c r="O14">
+        <v>2.547925015641027</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>7.569902366930876</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>2.199211001815002</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>2.694007663420706</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007002347288682551</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -983,28 +1067,34 @@
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0.2869405317406688</v>
+      </c>
+      <c r="O15">
+        <v>2.513039908076948</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>7.005264047389232</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>2.033962179225</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>2.473620101225151</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007082428722162543</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1024,28 +1114,34 @@
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0.3125911825911132</v>
+      </c>
+      <c r="O16">
+        <v>2.318818584431114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>6.666614559699724</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1.935031127504089</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>2.343084177920687</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007131203632943664</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1065,28 +1161,34 @@
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0.3293849700053428</v>
+      </c>
+      <c r="O17">
+        <v>2.204270851207042</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>6.47436677376021</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1.878925097511512</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>2.269513829125032</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.000715916282298735</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1106,28 +1208,34 @@
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0.3394017328889518</v>
+      </c>
+      <c r="O18">
+        <v>2.139903617457435</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>6.40968332435699</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1.860056533460522</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>2.244846054150827</v>
       </c>
       <c r="F19">
-        <v>2.087706772594757</v>
+        <v>2.087706772602957</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007168616047543669</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1147,28 +1255,34 @@
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0.3428518897422492</v>
+      </c>
+      <c r="O19">
+        <v>2.118355545792326</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>6.702395526218936</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1.945477927667241</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>2.356819348998926</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007126022010679467</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1188,28 +1302,34 @@
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0.3275595869251475</v>
+      </c>
+      <c r="O20">
+        <v>2.21630392452748</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>7.718349470577095</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>2.242721596965339</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>2.752534141043967</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0006981531804687929</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1229,28 +1349,34 @@
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0.2806731459179801</v>
+      </c>
+      <c r="O21">
+        <v>2.564761317242983</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>8.412079962611472</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>2.446445743506729</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>3.02940193048066</v>
       </c>
       <c r="F22">
-        <v>2.667416158031969</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0006885447551699362</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1270,28 +1396,34 @@
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0.2539409323653103</v>
+      </c>
+      <c r="O22">
+        <v>2.810035324739658</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>8.03869915905733</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>2.336715725047384</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>2.879688737610735</v>
       </c>
       <c r="F23">
         <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0006936926026393078</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1311,28 +1443,34 @@
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0.2678098192796199</v>
+      </c>
+      <c r="O23">
+        <v>2.677297698855099</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>6.68621140410869</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1.940752552439676</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>2.350605127001501</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>2.170038921573038</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007128364870504535</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1352,28 +1490,34 @@
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0.3283837230830073</v>
+      </c>
+      <c r="O24">
+        <v>2.210859178613802</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>5.321939584720496</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1.543358840117833</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1.836283256151845</v>
       </c>
       <c r="F25">
-        <v>1.757113814925077</v>
+        <v>1.757113814925404</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007331489166868826</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1392,6 +1536,12 @@
       </c>
       <c r="M25">
         <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0.4071554375576589</v>
+      </c>
+      <c r="O25">
+        <v>1.764475299082576</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_34/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_34/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.370796735641477</v>
+        <v>1.102870285814333</v>
       </c>
       <c r="C2">
-        <v>1.267205667821941</v>
+        <v>0.07394313531391816</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.488296408652062</v>
+        <v>0.1243172326054101</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>1.090821361512326</v>
       </c>
       <c r="G2">
-        <v>0.0007481275365235556</v>
+        <v>0.0008162304100505812</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.3961787637823129</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.05876342852075922</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.857793233632492</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.4178422232163399</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.4739033237520829</v>
+        <v>0.8766950907182203</v>
       </c>
       <c r="O2">
-        <v>1.469012074183965</v>
+        <v>1.591859061450961</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.749015215100371</v>
+        <v>0.9610796679226041</v>
       </c>
       <c r="C3">
-        <v>1.086945181676754</v>
+        <v>0.07249519954505246</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.265261478265387</v>
+        <v>0.1151760728984996</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>1.036741354203357</v>
       </c>
       <c r="G3">
-        <v>0.0007584092129642462</v>
+        <v>0.0008194975075387568</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.3997992587058548</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.05523818825010807</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.7458350163403225</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.3734571641455773</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5235507414549403</v>
+        <v>0.9156553481541359</v>
       </c>
       <c r="O3">
-        <v>1.283673972995089</v>
+        <v>1.585537847218873</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.375717090513092</v>
+        <v>0.8742772524441307</v>
       </c>
       <c r="C4">
-        <v>0.9787786034586645</v>
+        <v>0.07161145486933407</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.133000716902259</v>
+        <v>0.1096740768691582</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>1.005112507305121</v>
       </c>
       <c r="G4">
-        <v>0.000764817383078203</v>
+        <v>0.0008215720239438355</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.4027036743455561</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.05306718279856071</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.677170537624022</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.3464937796358782</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5559333704451497</v>
+        <v>0.9405997444196803</v>
       </c>
       <c r="O4">
-        <v>1.175685576901614</v>
+        <v>1.584558762534755</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.22537107652056</v>
+        <v>0.8389584809714279</v>
       </c>
       <c r="C5">
-        <v>0.9352191478791099</v>
+        <v>0.07125249272386824</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.080075952794701</v>
+        <v>0.1074585253658569</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.9926022341975056</v>
       </c>
       <c r="G5">
-        <v>0.0007674566452256766</v>
+        <v>0.0008224348888816603</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.4040530266987084</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.05218071305029781</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.6492006205460825</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.3355735180070383</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5695711635600276</v>
+        <v>0.9510166348925271</v>
       </c>
       <c r="O5">
-        <v>1.132942570234576</v>
+        <v>1.584862283687428</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.200503915664171</v>
+        <v>0.8330967759766565</v>
       </c>
       <c r="C6">
-        <v>0.9280144677081807</v>
+        <v>0.07119295361043854</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.071341115279154</v>
+        <v>0.1070922022374461</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>0.9905472854442507</v>
       </c>
       <c r="G6">
-        <v>0.0007678966828631358</v>
+        <v>0.0008225792301506976</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.4042869400079105</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.05203340484845498</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.6445566932603981</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.3337641487900811</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5718614149639585</v>
+        <v>0.9527614119230297</v>
       </c>
       <c r="O6">
-        <v>1.125916090834764</v>
+        <v>1.584954338371674</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.373682719419435</v>
+        <v>0.8738007267666035</v>
       </c>
       <c r="C7">
-        <v>0.9781891815520396</v>
+        <v>0.07160660924141027</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.132283267551315</v>
+        <v>0.1096440912949568</v>
       </c>
       <c r="F7">
-        <v>1.139311062524627</v>
+        <v>1.004942278691423</v>
       </c>
       <c r="G7">
-        <v>0.0007648528592924499</v>
+        <v>0.0008215835897053482</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.4027212081308278</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.05305523488776487</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.6767932899364268</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.3463462384005709</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.5561155506362141</v>
+        <v>0.9407392173604272</v>
       </c>
       <c r="O7">
-        <v>1.175104259154324</v>
+        <v>1.584560046653721</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.154417952803158</v>
+        <v>1.053920662758884</v>
       </c>
       <c r="C8">
-        <v>1.204457285887884</v>
+        <v>0.07344268762900441</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.410288781094494</v>
+        <v>0.1211415896704793</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>1.071836470704866</v>
       </c>
       <c r="G8">
-        <v>0.0007516554418048184</v>
+        <v>0.0008173428445706735</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.3972822559235603</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.05754918987995339</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.8191686300928325</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.4024750147755327</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.4906045706138933</v>
+        <v>0.8899130794066146</v>
       </c>
       <c r="O8">
-        <v>1.403774450737373</v>
+        <v>1.589060367765356</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.771600034545258</v>
+        <v>1.40971439272468</v>
       </c>
       <c r="C9">
-        <v>1.67414711268799</v>
+        <v>0.07709329358223016</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>2.003767692678522</v>
+        <v>0.1446284302303589</v>
       </c>
       <c r="F9">
-        <v>1.895061171845313</v>
+        <v>1.216368008885539</v>
       </c>
       <c r="G9">
-        <v>0.0007263210151161952</v>
+        <v>0.0008095581279540775</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.3922864439233145</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.06631701447540905</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.099396825931336</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.5150896972755277</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.3791012662956739</v>
+        <v>0.7986051831113077</v>
       </c>
       <c r="O9">
-        <v>1.908788348909098</v>
+        <v>1.622205838223948</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.044271292906274</v>
+        <v>1.673500536277714</v>
       </c>
       <c r="C10">
-        <v>2.045365900390152</v>
+        <v>0.07981843102143671</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.488733959954217</v>
+        <v>0.1625493055925418</v>
       </c>
       <c r="F10">
-        <v>2.275587181990971</v>
+        <v>1.331937762246483</v>
       </c>
       <c r="G10">
-        <v>0.0007076847897262563</v>
+        <v>0.0008041447621136509</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.3924571501130174</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.07274170290326154</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.306531409763693</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.5997558041844826</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.3107255136207314</v>
+        <v>0.7369768187946768</v>
       </c>
       <c r="O10">
-        <v>2.332106986389661</v>
+        <v>1.663279354149836</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.65090956950678</v>
+        <v>1.794215083311315</v>
       </c>
       <c r="C11">
-        <v>2.222951123320456</v>
+        <v>0.08107062129761999</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.725914678370145</v>
+        <v>0.1708679998595315</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>1.386843205800474</v>
       </c>
       <c r="G11">
-        <v>0.0006990976590685254</v>
+        <v>0.0008017443932709179</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.3934592600699034</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.07566316416218655</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.40118281929324</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.6387800875575351</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.2834961823671662</v>
+        <v>0.71020921385057</v>
       </c>
       <c r="O11">
-        <v>2.541230453468316</v>
+        <v>1.686042248378214</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.885619684888127</v>
+        <v>1.840046355705539</v>
       </c>
       <c r="C12">
-        <v>2.291783552073809</v>
+        <v>0.08154687435121133</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.818780832423187</v>
+        <v>0.1740438743261166</v>
       </c>
       <c r="F12">
-        <v>2.518780942186368</v>
+        <v>1.407995579252884</v>
       </c>
       <c r="G12">
-        <v>0.0006958188558379863</v>
+        <v>0.0008008440238643767</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.3939797050181113</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.07676947434348591</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.437098826648196</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.6536385096867576</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.2738444271403964</v>
+        <v>0.7002628970542624</v>
       </c>
       <c r="O12">
-        <v>2.623365648720338</v>
+        <v>1.695288129277287</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.834830025202962</v>
+        <v>1.830170195545861</v>
       </c>
       <c r="C13">
-        <v>2.276882576407047</v>
+        <v>0.08144420772362082</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.798632042339108</v>
+        <v>0.1733587165425234</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>1.403423563827559</v>
       </c>
       <c r="G13">
-        <v>0.000696526418761422</v>
+        <v>0.000801037557808526</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.3938612150380507</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.07653120690537918</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.429360191406147</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.6504347648862421</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.2758918786427884</v>
+        <v>0.7023964359969384</v>
       </c>
       <c r="O13">
-        <v>2.605534888840808</v>
+        <v>1.693268361030732</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.670112661645305</v>
+        <v>1.797983162054379</v>
       </c>
       <c r="C14">
-        <v>2.228580046546597</v>
+        <v>0.08110975964213907</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.733489179228002</v>
+        <v>0.171128753657797</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>1.388576040016289</v>
       </c>
       <c r="G14">
-        <v>0.0006988285270774774</v>
+        <v>0.0008016701490517245</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.3934992043912402</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.07575417955654373</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.404136101667802</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.6400008351312181</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.2826882362839598</v>
+        <v>0.7093870705993464</v>
       </c>
       <c r="O14">
-        <v>2.547925015641027</v>
+        <v>1.686790129339386</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.569902366930876</v>
+        <v>1.778283710140073</v>
       </c>
       <c r="C15">
-        <v>2.199211001815002</v>
+        <v>0.08090517952454945</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.694007663420706</v>
+        <v>0.1697662488831639</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>1.379529283772143</v>
       </c>
       <c r="G15">
-        <v>0.0007002347288682551</v>
+        <v>0.0008020587386328337</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.393296067500053</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.07527823558884705</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.388695585271762</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.6336205030925584</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.2869405317406688</v>
+        <v>0.713694016750301</v>
       </c>
       <c r="O15">
-        <v>2.513039908076948</v>
+        <v>1.682904776478864</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.005264047389232</v>
+        <v>1.665627342608701</v>
       </c>
       <c r="C16">
-        <v>2.033962179225</v>
+        <v>0.07973687225675263</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.473620101225151</v>
+        <v>0.1620091622730477</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>1.328398636355885</v>
       </c>
       <c r="G16">
-        <v>0.0007082428722162543</v>
+        <v>0.0008043028542605661</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.3924109376183011</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.07255077060302639</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.300355313413121</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.5972163567650028</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.3125911825911132</v>
+        <v>0.7387522996768254</v>
       </c>
       <c r="O16">
-        <v>2.318818584431114</v>
+        <v>1.661877140832104</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.666614559699724</v>
+        <v>1.5967111095419</v>
       </c>
       <c r="C17">
-        <v>1.935031127504089</v>
+        <v>0.07902354674089196</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.343084177920687</v>
+        <v>0.157294332220097</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>1.297646622930756</v>
       </c>
       <c r="G17">
-        <v>0.0007131203632943664</v>
+        <v>0.0008056952369886281</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.3921102745810643</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.07087738892800388</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.246278836758563</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.5750192396876628</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.3293849700053428</v>
+        <v>0.7544547260925487</v>
       </c>
       <c r="O17">
-        <v>2.204270851207042</v>
+        <v>1.650049327234257</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.47436677376021</v>
+        <v>1.557138759255906</v>
       </c>
       <c r="C18">
-        <v>1.878925097511512</v>
+        <v>0.07861442034451471</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.269513829125032</v>
+        <v>0.154598032400191</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>1.280176775516054</v>
       </c>
       <c r="G18">
-        <v>0.000715916282298735</v>
+        <v>0.0008065019748961179</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.3920238457746272</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.06991478315231348</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.21521466808673</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.5622994982102512</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.3394017328889518</v>
+        <v>0.7636051541135505</v>
       </c>
       <c r="O18">
-        <v>2.139903617457435</v>
+        <v>1.643627639138174</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.40968332435699</v>
+        <v>1.543751177496915</v>
       </c>
       <c r="C19">
-        <v>1.860056533460522</v>
+        <v>0.07847608832991426</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.244846054150827</v>
+        <v>0.1536877274101371</v>
       </c>
       <c r="F19">
-        <v>2.087706772602957</v>
+        <v>1.274298457845873</v>
       </c>
       <c r="G19">
-        <v>0.0007168616047543669</v>
+        <v>0.0008067761420140263</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.3920092029886817</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.06958883518904102</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.204703239302773</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.5580007403571869</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.3428518897422492</v>
+        <v>0.7667235090178739</v>
       </c>
       <c r="O19">
-        <v>2.118355545792326</v>
+        <v>1.641517698164108</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.702395526218936</v>
+        <v>1.604040369628507</v>
       </c>
       <c r="C20">
-        <v>1.945477927667241</v>
+        <v>0.07909935952841352</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.356819348998926</v>
+        <v>0.1577946120468106</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>1.300897495975249</v>
       </c>
       <c r="G20">
-        <v>0.0007126022010679467</v>
+        <v>0.0008055464097283241</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.3921332711676797</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.07105553448012714</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.252031226345451</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.5773771963541918</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.3275595869251475</v>
+        <v>0.7527708253071559</v>
       </c>
       <c r="O20">
-        <v>2.21630392452748</v>
+        <v>1.651268670216496</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.718349470577095</v>
+        <v>1.807433901727251</v>
       </c>
       <c r="C21">
-        <v>2.242721596965339</v>
+        <v>0.08120793647766789</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.752534141043967</v>
+        <v>0.171783033340013</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>1.392927112391163</v>
       </c>
       <c r="G21">
-        <v>0.0006981531804687929</v>
+        <v>0.00080148411118328</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.3936016433656064</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.0759824093743191</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.411542927634315</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.6430632785250197</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.2806731459179801</v>
+        <v>0.707328531345194</v>
       </c>
       <c r="O21">
-        <v>2.564761317242983</v>
+        <v>1.688675623483107</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.412079962611472</v>
+        <v>1.941067003336741</v>
       </c>
       <c r="C22">
-        <v>2.446445743506729</v>
+        <v>0.08259826057292941</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>3.02940193048066</v>
+        <v>0.181076391197152</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>1.455190246477727</v>
       </c>
       <c r="G22">
-        <v>0.0006885447551699362</v>
+        <v>0.0007988791063273107</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.395387071473742</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.07920259371625349</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.516228326113207</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.6864675938451228</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.2539409323653103</v>
+        <v>0.6787407354759321</v>
       </c>
       <c r="O22">
-        <v>2.810035324739658</v>
+        <v>1.716792665973031</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.03869915905733</v>
+        <v>1.869674466398664</v>
       </c>
       <c r="C23">
-        <v>2.336715725047384</v>
+        <v>0.08185499934957363</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.879688737610735</v>
+        <v>0.1761018872144788</v>
       </c>
       <c r="F23">
-        <v>2.562285531758789</v>
+        <v>1.421756731006795</v>
       </c>
       <c r="G23">
-        <v>0.0006936926026393078</v>
+        <v>0.0008002649960693347</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.3943558110252567</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.07748384045230239</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.460311571768557</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.6632558408682314</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.2678098192796199</v>
+        <v>0.6938942075768626</v>
       </c>
       <c r="O23">
-        <v>2.677297698855099</v>
+        <v>1.701436559569743</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.68621140410869</v>
+        <v>1.6007266612568</v>
       </c>
       <c r="C24">
-        <v>1.940752552439676</v>
+        <v>0.07906508155431169</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.350605127001501</v>
+        <v>0.1575683910749426</v>
       </c>
       <c r="F24">
-        <v>2.170038921573038</v>
+        <v>1.299427124406762</v>
       </c>
       <c r="G24">
-        <v>0.0007128364870504535</v>
+        <v>0.0008056136750733337</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.3921226058136043</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.07097499662267381</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.249430493708701</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.5763110348959373</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.3283837230830073</v>
+        <v>0.7535317346448611</v>
       </c>
       <c r="O24">
-        <v>2.210859178613802</v>
+        <v>1.650716229963535</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.321939584720496</v>
+        <v>1.313105839375339</v>
       </c>
       <c r="C25">
-        <v>1.543358840117833</v>
+        <v>0.07609912439327005</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.836283256151845</v>
+        <v>0.1381647717472241</v>
       </c>
       <c r="F25">
-        <v>1.757113814925404</v>
+        <v>1.175714916385772</v>
       </c>
       <c r="G25">
-        <v>0.0007331489166868826</v>
+        <v>0.0008116090078977669</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.3929925532731353</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.06394884841549597</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.0234154628711</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.484314347567576</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.4071554375576589</v>
+        <v>0.8223755225542462</v>
       </c>
       <c r="O25">
-        <v>1.764475299082576</v>
+        <v>1.61044645731738</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_34/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_34/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.102870285814333</v>
+        <v>0.650468568325266</v>
       </c>
       <c r="C2">
-        <v>0.07394313531391816</v>
+        <v>0.1255219744994989</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1243172326054101</v>
+        <v>0.2185565308620028</v>
       </c>
       <c r="F2">
-        <v>1.090821361512326</v>
+        <v>2.01452297117288</v>
       </c>
       <c r="G2">
-        <v>0.0008162304100505812</v>
+        <v>0.00247127532784681</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3961787637823129</v>
+        <v>0.9478811732533252</v>
       </c>
       <c r="J2">
-        <v>0.05876342852075922</v>
+        <v>0.05414263894768467</v>
       </c>
       <c r="K2">
-        <v>0.857793233632492</v>
+        <v>0.3348554129341892</v>
       </c>
       <c r="L2">
-        <v>0.4178422232163399</v>
+        <v>0.4808417783785188</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8766950907182203</v>
+        <v>1.813637775454717</v>
       </c>
       <c r="O2">
-        <v>1.591859061450961</v>
+        <v>3.569950141224936</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9610796679226041</v>
+        <v>0.6111677873460053</v>
       </c>
       <c r="C3">
-        <v>0.07249519954505246</v>
+        <v>0.1250730213821498</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1151760728984996</v>
+        <v>0.217232952757989</v>
       </c>
       <c r="F3">
-        <v>1.036741354203357</v>
+        <v>2.013420968318755</v>
       </c>
       <c r="G3">
-        <v>0.0008194975075387568</v>
+        <v>0.002473448128908371</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3997992587058548</v>
+        <v>0.9548465628343976</v>
       </c>
       <c r="J3">
-        <v>0.05523818825010807</v>
+        <v>0.05291071455588536</v>
       </c>
       <c r="K3">
-        <v>0.7458350163403225</v>
+        <v>0.3018535448156001</v>
       </c>
       <c r="L3">
-        <v>0.3734571641455773</v>
+        <v>0.4710515204788948</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9156553481541359</v>
+        <v>1.830701494907165</v>
       </c>
       <c r="O3">
-        <v>1.585537847218873</v>
+        <v>3.592369311787621</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8742772524441307</v>
+        <v>0.5872253557427314</v>
       </c>
       <c r="C4">
-        <v>0.07161145486933407</v>
+        <v>0.1247973369156981</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1096740768691582</v>
+        <v>0.216501691645135</v>
       </c>
       <c r="F4">
-        <v>1.005112507305121</v>
+        <v>2.013686596389078</v>
       </c>
       <c r="G4">
-        <v>0.0008215720239438355</v>
+        <v>0.002474854122267539</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4027036743455561</v>
+        <v>0.9595254026845517</v>
       </c>
       <c r="J4">
-        <v>0.05306718279856071</v>
+        <v>0.05214740876794366</v>
       </c>
       <c r="K4">
-        <v>0.677170537624022</v>
+        <v>0.2816247590335053</v>
       </c>
       <c r="L4">
-        <v>0.3464937796358782</v>
+        <v>0.46523669614227</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9405997444196803</v>
+        <v>1.841724271868332</v>
       </c>
       <c r="O4">
-        <v>1.584558762534755</v>
+        <v>3.607784496648605</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8389584809714279</v>
+        <v>0.5775167512989867</v>
       </c>
       <c r="C5">
-        <v>0.07125249272386824</v>
+        <v>0.1246849962944836</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1074585253658569</v>
+        <v>0.2162242399714813</v>
       </c>
       <c r="F5">
-        <v>0.9926022341975056</v>
+        <v>2.014032112367232</v>
       </c>
       <c r="G5">
-        <v>0.0008224348888816603</v>
+        <v>0.002475445204254105</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4040530266987084</v>
+        <v>0.9615332325325561</v>
       </c>
       <c r="J5">
-        <v>0.05218071305029781</v>
+        <v>0.05183463364134511</v>
       </c>
       <c r="K5">
-        <v>0.6492006205460825</v>
+        <v>0.2733905660521998</v>
       </c>
       <c r="L5">
-        <v>0.3355735180070383</v>
+        <v>0.4629167362139839</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9510166348925271</v>
+        <v>1.846353383873804</v>
       </c>
       <c r="O5">
-        <v>1.584862283687428</v>
+        <v>3.614481360111611</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8330967759766565</v>
+        <v>0.5759075741103459</v>
       </c>
       <c r="C6">
-        <v>0.07119295361043854</v>
+        <v>0.1246663426826089</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1070922022374461</v>
+        <v>0.2161794121211749</v>
       </c>
       <c r="F6">
-        <v>0.9905472854442507</v>
+        <v>2.014103825310045</v>
       </c>
       <c r="G6">
-        <v>0.0008225792301506976</v>
+        <v>0.002475544449515498</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4042869400079105</v>
+        <v>0.9618727430939416</v>
       </c>
       <c r="J6">
-        <v>0.05203340484845498</v>
+        <v>0.05178259395823304</v>
       </c>
       <c r="K6">
-        <v>0.6445566932603981</v>
+        <v>0.2720238558545702</v>
       </c>
       <c r="L6">
-        <v>0.3337641487900811</v>
+        <v>0.4625345129168039</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9527614119230297</v>
+        <v>1.84713033489777</v>
       </c>
       <c r="O6">
-        <v>1.584954338371674</v>
+        <v>3.615618443539461</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8738007267666035</v>
+        <v>0.5870942262278618</v>
       </c>
       <c r="C7">
-        <v>0.07160660924141027</v>
+        <v>0.1247958218255079</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1096440912949568</v>
+        <v>0.216497866564314</v>
       </c>
       <c r="F7">
-        <v>1.004942278691423</v>
+        <v>2.01369029500065</v>
       </c>
       <c r="G7">
-        <v>0.0008215835897053482</v>
+        <v>0.002474862020280049</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4027212081308278</v>
+        <v>0.9595520712851808</v>
       </c>
       <c r="J7">
-        <v>0.05305523488776487</v>
+        <v>0.05214319752741403</v>
       </c>
       <c r="K7">
-        <v>0.6767932899364268</v>
+        <v>0.2815136718714513</v>
       </c>
       <c r="L7">
-        <v>0.3463462384005709</v>
+        <v>0.4652052070985917</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9407392173604272</v>
+        <v>1.841786145942478</v>
       </c>
       <c r="O7">
-        <v>1.584560046653721</v>
+        <v>3.607873132084563</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.053920662758884</v>
+        <v>0.6368789947517541</v>
       </c>
       <c r="C8">
-        <v>0.07344268762900441</v>
+        <v>0.1253671862425101</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1211415896704793</v>
+        <v>0.2180833028298608</v>
       </c>
       <c r="F8">
-        <v>1.071836470704866</v>
+        <v>2.013947627447394</v>
       </c>
       <c r="G8">
-        <v>0.0008173428445706735</v>
+        <v>0.002472009621604252</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3972822559235603</v>
+        <v>0.9501994290386442</v>
       </c>
       <c r="J8">
-        <v>0.05754918987995339</v>
+        <v>0.05371931087861626</v>
       </c>
       <c r="K8">
-        <v>0.8191686300928325</v>
+        <v>0.3234695156217811</v>
       </c>
       <c r="L8">
-        <v>0.4024750147755327</v>
+        <v>0.4774254637832627</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8899130794066146</v>
+        <v>1.819408140957714</v>
       </c>
       <c r="O8">
-        <v>1.589060367765356</v>
+        <v>3.577337997375651</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.40971439272468</v>
+        <v>0.7359736962249031</v>
       </c>
       <c r="C9">
-        <v>0.07709329358223016</v>
+        <v>0.1264870709153705</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1446284302303589</v>
+        <v>0.2218356817062563</v>
       </c>
       <c r="F9">
-        <v>1.216368008885539</v>
+        <v>2.021916471368669</v>
       </c>
       <c r="G9">
-        <v>0.0008095581279540775</v>
+        <v>0.002466984056750266</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3922864439233145</v>
+        <v>0.9350464761932251</v>
       </c>
       <c r="J9">
-        <v>0.06631701447540905</v>
+        <v>0.05675487509728683</v>
       </c>
       <c r="K9">
-        <v>1.099396825931336</v>
+        <v>0.4059993672380244</v>
       </c>
       <c r="L9">
-        <v>0.5150896972755277</v>
+        <v>0.5029393190207401</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7986051831113077</v>
+        <v>1.779851084915384</v>
       </c>
       <c r="O9">
-        <v>1.622205838223948</v>
+        <v>3.530540360661064</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.673500536277714</v>
+        <v>0.809642788364954</v>
       </c>
       <c r="C10">
-        <v>0.07981843102143671</v>
+        <v>0.1273091130642499</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1625493055925418</v>
+        <v>0.2249816295904488</v>
       </c>
       <c r="F10">
-        <v>1.331937762246483</v>
+        <v>2.032308585001303</v>
       </c>
       <c r="G10">
-        <v>0.0008041447621136509</v>
+        <v>0.002463634675680951</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3924571501130174</v>
+        <v>0.9258534554900457</v>
       </c>
       <c r="J10">
-        <v>0.07274170290326154</v>
+        <v>0.05895104473497881</v>
       </c>
       <c r="K10">
-        <v>1.306531409763693</v>
+        <v>0.4667694911910303</v>
       </c>
       <c r="L10">
-        <v>0.5997558041844826</v>
+        <v>0.5226200075242673</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7369768187946768</v>
+        <v>1.753421084668874</v>
       </c>
       <c r="O10">
-        <v>1.663279354149836</v>
+        <v>3.504123992136329</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.794215083311315</v>
+        <v>0.8433384940473161</v>
       </c>
       <c r="C11">
-        <v>0.08107062129761999</v>
+        <v>0.1276828434241253</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1708679998595315</v>
+        <v>0.2264966541303366</v>
       </c>
       <c r="F11">
-        <v>1.386843205800474</v>
+        <v>2.038018947827013</v>
       </c>
       <c r="G11">
-        <v>0.0008017443932709179</v>
+        <v>0.00246218469995168</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3934592600699034</v>
+        <v>0.9220918489796759</v>
       </c>
       <c r="J11">
-        <v>0.07566316416218655</v>
+        <v>0.0599426641885259</v>
       </c>
       <c r="K11">
-        <v>1.40118281929324</v>
+        <v>0.4944409650541104</v>
       </c>
       <c r="L11">
-        <v>0.6387800875575351</v>
+        <v>0.5317746079766295</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.71020921385057</v>
+        <v>1.741968024462864</v>
       </c>
       <c r="O11">
-        <v>1.686042248378214</v>
+        <v>3.493834467952155</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.840046355705539</v>
+        <v>0.8561238646164497</v>
       </c>
       <c r="C12">
-        <v>0.08154687435121133</v>
+        <v>0.1278243254187004</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1740438743261166</v>
+        <v>0.2270823582774071</v>
       </c>
       <c r="F12">
-        <v>1.407995579252884</v>
+        <v>2.040322380871729</v>
       </c>
       <c r="G12">
-        <v>0.0008008440238643767</v>
+        <v>0.002461646172599945</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3939797050181113</v>
+        <v>0.920727818430457</v>
       </c>
       <c r="J12">
-        <v>0.07676947434348591</v>
+        <v>0.06031708483444831</v>
       </c>
       <c r="K12">
-        <v>1.437098826648196</v>
+        <v>0.5049228313090737</v>
       </c>
       <c r="L12">
-        <v>0.6536385096867576</v>
+        <v>0.5352700230551761</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7002628970542624</v>
+        <v>1.737712982754159</v>
       </c>
       <c r="O12">
-        <v>1.695288129277287</v>
+        <v>3.490186335517279</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.830170195545861</v>
+        <v>0.8533691834740296</v>
       </c>
       <c r="C13">
-        <v>0.08144420772362082</v>
+        <v>0.1277938567449297</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1733587165425234</v>
+        <v>0.2269556839444249</v>
       </c>
       <c r="F13">
-        <v>1.403423563827559</v>
+        <v>2.039820027278935</v>
       </c>
       <c r="G13">
-        <v>0.000801037557808526</v>
+        <v>0.002461761685723791</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3938612150380507</v>
+        <v>0.9210189007285621</v>
       </c>
       <c r="J13">
-        <v>0.07653120690537918</v>
+        <v>0.06023649511880791</v>
       </c>
       <c r="K13">
-        <v>1.429360191406147</v>
+        <v>0.5026652372375224</v>
       </c>
       <c r="L13">
-        <v>0.6504347648862421</v>
+        <v>0.5345159473963434</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7023964359969384</v>
+        <v>1.738625735736269</v>
       </c>
       <c r="O13">
-        <v>1.693268361030732</v>
+        <v>3.49096098527275</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.797983162054379</v>
+        <v>0.844389847027827</v>
       </c>
       <c r="C14">
-        <v>0.08110975964213907</v>
+        <v>0.1276944841226495</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.171128753657797</v>
+        <v>0.2265446003215317</v>
       </c>
       <c r="F14">
-        <v>1.388576040016289</v>
+        <v>2.03820562768486</v>
       </c>
       <c r="G14">
-        <v>0.0008016701490517245</v>
+        <v>0.002462140183944909</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3934992043912402</v>
+        <v>0.921978418905482</v>
       </c>
       <c r="J14">
-        <v>0.07575417955654373</v>
+        <v>0.05997348981870942</v>
       </c>
       <c r="K14">
-        <v>1.404136101667802</v>
+        <v>0.4953032520924125</v>
       </c>
       <c r="L14">
-        <v>0.6400008351312181</v>
+        <v>0.5320616027638891</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7093870705993464</v>
+        <v>1.741616316497856</v>
       </c>
       <c r="O14">
-        <v>1.686790129339386</v>
+        <v>3.493529358504816</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.778283710140073</v>
+        <v>0.8388930457974482</v>
       </c>
       <c r="C15">
-        <v>0.08090517952454945</v>
+        <v>0.1276336098170816</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1697662488831639</v>
+        <v>0.2262943600494296</v>
       </c>
       <c r="F15">
-        <v>1.379529283772143</v>
+        <v>2.037235120220117</v>
       </c>
       <c r="G15">
-        <v>0.0008020587386328337</v>
+        <v>0.002462373396963511</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.393296067500053</v>
+        <v>0.9225740173350516</v>
       </c>
       <c r="J15">
-        <v>0.07527823558884705</v>
+        <v>0.05981224982229705</v>
       </c>
       <c r="K15">
-        <v>1.388695585271762</v>
+        <v>0.4907942335127018</v>
       </c>
       <c r="L15">
-        <v>0.6336205030925584</v>
+        <v>0.5305619847602969</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.713694016750301</v>
+        <v>1.743458810504306</v>
       </c>
       <c r="O15">
-        <v>1.682904776478864</v>
+        <v>3.495134892225508</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.665627342608701</v>
+        <v>0.8074443128443818</v>
       </c>
       <c r="C16">
-        <v>0.07973687225675263</v>
+        <v>0.1272846836218022</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1620091622730477</v>
+        <v>0.2248843018233586</v>
       </c>
       <c r="F16">
-        <v>1.328398636355885</v>
+        <v>2.031955152737822</v>
       </c>
       <c r="G16">
-        <v>0.0008043028542605661</v>
+        <v>0.00246373091338762</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3924109376183011</v>
+        <v>0.9261077405758478</v>
       </c>
       <c r="J16">
-        <v>0.07255077060302639</v>
+        <v>0.05888608922951732</v>
       </c>
       <c r="K16">
-        <v>1.300355313413121</v>
+        <v>0.4649615858156437</v>
       </c>
       <c r="L16">
-        <v>0.5972163567650028</v>
+        <v>0.5220257717165282</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7387522996768254</v>
+        <v>1.754181041072012</v>
       </c>
       <c r="O16">
-        <v>1.661877140832104</v>
+        <v>3.504831187063957</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.5967111095419</v>
+        <v>0.7881978925869078</v>
       </c>
       <c r="C17">
-        <v>0.07902354674089196</v>
+        <v>0.1270705651382542</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.157294332220097</v>
+        <v>0.2240407202154451</v>
       </c>
       <c r="F17">
-        <v>1.297646622930756</v>
+        <v>2.028967602718225</v>
       </c>
       <c r="G17">
-        <v>0.0008056952369886281</v>
+        <v>0.002464582541523319</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3921102745810643</v>
+        <v>0.9283831993897209</v>
       </c>
       <c r="J17">
-        <v>0.07087738892800388</v>
+        <v>0.05831600571235285</v>
       </c>
       <c r="K17">
-        <v>1.246278836758563</v>
+        <v>0.4491205549289248</v>
       </c>
       <c r="L17">
-        <v>0.5750192396876628</v>
+        <v>0.5168405815055337</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7544547260925487</v>
+        <v>1.760904797304631</v>
       </c>
       <c r="O17">
-        <v>1.650049327234257</v>
+        <v>3.511221901607854</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.557138759255906</v>
+        <v>0.7771451593285406</v>
       </c>
       <c r="C18">
-        <v>0.07861442034451471</v>
+        <v>0.1269473896563014</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.154598032400191</v>
+        <v>0.2235634172460479</v>
       </c>
       <c r="F18">
-        <v>1.280176775516054</v>
+        <v>2.027341779931504</v>
       </c>
       <c r="G18">
-        <v>0.0008065019748961179</v>
+        <v>0.002465079313072131</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3920238457746272</v>
+        <v>0.929731550136033</v>
       </c>
       <c r="J18">
-        <v>0.06991478315231348</v>
+        <v>0.05798741044019451</v>
       </c>
       <c r="K18">
-        <v>1.21521466808673</v>
+        <v>0.4400117738906886</v>
       </c>
       <c r="L18">
-        <v>0.5622994982102512</v>
+        <v>0.5138772022522033</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7636051541135505</v>
+        <v>1.76482578204131</v>
       </c>
       <c r="O18">
-        <v>1.643627639138174</v>
+        <v>3.515060270722074</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.543751177496915</v>
+        <v>0.7734058896562033</v>
       </c>
       <c r="C19">
-        <v>0.07847608832991426</v>
+        <v>0.1269056813872567</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1536877274101371</v>
+        <v>0.223403170114878</v>
       </c>
       <c r="F19">
-        <v>1.274298457845873</v>
+        <v>2.026807206791943</v>
       </c>
       <c r="G19">
-        <v>0.0008067761420140263</v>
+        <v>0.002465248704330542</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3920092029886817</v>
+        <v>0.9301948753330365</v>
       </c>
       <c r="J19">
-        <v>0.06958883518904102</v>
+        <v>0.05787603427156895</v>
       </c>
       <c r="K19">
-        <v>1.204703239302773</v>
+        <v>0.436928154653458</v>
       </c>
       <c r="L19">
-        <v>0.5580007403571869</v>
+        <v>0.5128771245631327</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7667235090178739</v>
+        <v>1.766162575748996</v>
       </c>
       <c r="O19">
-        <v>1.641517698164108</v>
+        <v>3.516387806565604</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.604040369628507</v>
+        <v>0.7902449224420138</v>
       </c>
       <c r="C20">
-        <v>0.07909935952841352</v>
+        <v>0.1270933605774687</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1577946120468106</v>
+        <v>0.2241297035080017</v>
       </c>
       <c r="F20">
-        <v>1.300897495975249</v>
+        <v>2.029276057478597</v>
       </c>
       <c r="G20">
-        <v>0.0008055464097283241</v>
+        <v>0.002464491166760118</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3921332711676797</v>
+        <v>0.9281368781435368</v>
       </c>
       <c r="J20">
-        <v>0.07105553448012714</v>
+        <v>0.05837676446261142</v>
       </c>
       <c r="K20">
-        <v>1.252031226345451</v>
+        <v>0.450806598860737</v>
       </c>
       <c r="L20">
-        <v>0.5773771963541918</v>
+        <v>0.5173905886869221</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7527708253071559</v>
+        <v>1.760183488532164</v>
       </c>
       <c r="O20">
-        <v>1.651268670216496</v>
+        <v>3.510524771551502</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.807433901727251</v>
+        <v>0.8470266092058694</v>
       </c>
       <c r="C21">
-        <v>0.08120793647766789</v>
+        <v>0.127723673477611</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.171783033340013</v>
+        <v>0.2266650205026863</v>
       </c>
       <c r="F21">
-        <v>1.392927112391163</v>
+        <v>2.03867599054297</v>
       </c>
       <c r="G21">
-        <v>0.00080148411118328</v>
+        <v>0.002462028723834474</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3936016433656064</v>
+        <v>0.9216949459892874</v>
       </c>
       <c r="J21">
-        <v>0.0759824093743191</v>
+        <v>0.06005077040027018</v>
       </c>
       <c r="K21">
-        <v>1.411542927634315</v>
+        <v>0.4974655611999026</v>
       </c>
       <c r="L21">
-        <v>0.6430632785250197</v>
+        <v>0.5327817245216835</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.707328531345194</v>
+        <v>1.740735685355023</v>
       </c>
       <c r="O21">
-        <v>1.688675623483107</v>
+        <v>3.492768227487687</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.941067003336741</v>
+        <v>0.8842852011589457</v>
       </c>
       <c r="C22">
-        <v>0.08259826057292941</v>
+        <v>0.1281353725093979</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.181076391197152</v>
+        <v>0.2283918932574807</v>
       </c>
       <c r="F22">
-        <v>1.455190246477727</v>
+        <v>2.045641352929835</v>
       </c>
       <c r="G22">
-        <v>0.0007988791063273107</v>
+        <v>0.00246048082854125</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.395387071473742</v>
+        <v>0.9178368592047192</v>
       </c>
       <c r="J22">
-        <v>0.07920259371625349</v>
+        <v>0.06113850353263928</v>
       </c>
       <c r="K22">
-        <v>1.516228326113207</v>
+        <v>0.5279787374518889</v>
       </c>
       <c r="L22">
-        <v>0.6864675938451228</v>
+        <v>0.5430082806116161</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6787407354759321</v>
+        <v>1.728503290168614</v>
       </c>
       <c r="O22">
-        <v>1.716792665973031</v>
+        <v>3.482610454276937</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.869674466398664</v>
+        <v>0.8643862731896945</v>
       </c>
       <c r="C23">
-        <v>0.08185499934957363</v>
+        <v>0.127915666808164</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1761018872144788</v>
+        <v>0.2274638563635705</v>
       </c>
       <c r="F23">
-        <v>1.421756731006795</v>
+        <v>2.041848698621237</v>
       </c>
       <c r="G23">
-        <v>0.0008002649960693347</v>
+        <v>0.002461301361981005</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3943558110252567</v>
+        <v>0.9198637887482732</v>
       </c>
       <c r="J23">
-        <v>0.07748384045230239</v>
+        <v>0.06055854402767125</v>
       </c>
       <c r="K23">
-        <v>1.460311571768557</v>
+        <v>0.5116917481567498</v>
       </c>
       <c r="L23">
-        <v>0.6632558408682314</v>
+        <v>0.5375349248566579</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6938942075768626</v>
+        <v>1.734988221724409</v>
       </c>
       <c r="O23">
-        <v>1.701436559569743</v>
+        <v>3.487899471501805</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.6007266612568</v>
+        <v>0.7893194219000463</v>
       </c>
       <c r="C24">
-        <v>0.07906508155431169</v>
+        <v>0.127083054995019</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1575683910749426</v>
+        <v>0.2240894502238504</v>
       </c>
       <c r="F24">
-        <v>1.299427124406762</v>
+        <v>2.029136319235931</v>
       </c>
       <c r="G24">
-        <v>0.0008056136750733337</v>
+        <v>0.002464532454944649</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3921226058136043</v>
+        <v>0.9282481148827664</v>
       </c>
       <c r="J24">
-        <v>0.07097499662267381</v>
+        <v>0.05834929806743006</v>
       </c>
       <c r="K24">
-        <v>1.249430493708701</v>
+        <v>0.4500443432185648</v>
       </c>
       <c r="L24">
-        <v>0.5763110348959373</v>
+        <v>0.5171418754277113</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7535317346448611</v>
+        <v>1.760509419635669</v>
       </c>
       <c r="O24">
-        <v>1.650716229963535</v>
+        <v>3.510839432373814</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.313105839375339</v>
+        <v>0.7090120173540981</v>
       </c>
       <c r="C25">
-        <v>0.07609912439327005</v>
+        <v>0.126184213574021</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1381647717472241</v>
+        <v>0.2207520121553372</v>
       </c>
       <c r="F25">
-        <v>1.175714916385772</v>
+        <v>2.018962931280242</v>
       </c>
       <c r="G25">
-        <v>0.0008116090078977669</v>
+        <v>0.002468283147464557</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3929925532731353</v>
+        <v>0.9388048512093086</v>
       </c>
       <c r="J25">
-        <v>0.06394884841549597</v>
+        <v>0.05593962528680407</v>
       </c>
       <c r="K25">
-        <v>1.0234154628711</v>
+        <v>0.3836476438274872</v>
       </c>
       <c r="L25">
-        <v>0.484314347567576</v>
+        <v>0.4958721639302155</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8223755225542462</v>
+        <v>1.790089676678928</v>
       </c>
       <c r="O25">
-        <v>1.61044645731738</v>
+        <v>3.541800821025717</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_34/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_34/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.650468568325266</v>
+        <v>1.102870285814305</v>
       </c>
       <c r="C2">
-        <v>0.1255219744994989</v>
+        <v>0.0739431353139075</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2185565308620028</v>
+        <v>0.1243172326053958</v>
       </c>
       <c r="F2">
-        <v>2.01452297117288</v>
+        <v>1.09082136151234</v>
       </c>
       <c r="G2">
-        <v>0.00247127532784681</v>
+        <v>0.0008162304099902542</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.9478811732533252</v>
+        <v>0.3961787637823306</v>
       </c>
       <c r="J2">
-        <v>0.05414263894768467</v>
+        <v>0.05876342852065974</v>
       </c>
       <c r="K2">
-        <v>0.3348554129341892</v>
+        <v>0.8577932336325205</v>
       </c>
       <c r="L2">
-        <v>0.4808417783785188</v>
+        <v>0.4178422232163257</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.813637775454717</v>
+        <v>0.87669509071827</v>
       </c>
       <c r="O2">
-        <v>3.569950141224936</v>
+        <v>1.591859061450975</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6111677873460053</v>
+        <v>0.9610796679227178</v>
       </c>
       <c r="C3">
-        <v>0.1250730213821498</v>
+        <v>0.07249519954512351</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.217232952757989</v>
+        <v>0.1151760728984961</v>
       </c>
       <c r="F3">
-        <v>2.013420968318755</v>
+        <v>1.036741354203372</v>
       </c>
       <c r="G3">
-        <v>0.002473448128908371</v>
+        <v>0.0008194975075378873</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.9548465628343976</v>
+        <v>0.3997992587058725</v>
       </c>
       <c r="J3">
-        <v>0.05291071455588536</v>
+        <v>0.05523818825012583</v>
       </c>
       <c r="K3">
-        <v>0.3018535448156001</v>
+        <v>0.7458350163403509</v>
       </c>
       <c r="L3">
-        <v>0.4710515204788948</v>
+        <v>0.3734571641455631</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.830701494907165</v>
+        <v>0.9156553481541909</v>
       </c>
       <c r="O3">
-        <v>3.592369311787621</v>
+        <v>1.585537847218916</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5872253557427314</v>
+        <v>0.874277252444017</v>
       </c>
       <c r="C4">
-        <v>0.1247973369156981</v>
+        <v>0.07161145486932696</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.216501691645135</v>
+        <v>0.1096740768691546</v>
       </c>
       <c r="F4">
-        <v>2.013686596389078</v>
+        <v>1.005112507305128</v>
       </c>
       <c r="G4">
-        <v>0.002474854122267539</v>
+        <v>0.0008215720239013966</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.9595254026845517</v>
+        <v>0.4027036743455454</v>
       </c>
       <c r="J4">
-        <v>0.05214740876794366</v>
+        <v>0.05306718279859979</v>
       </c>
       <c r="K4">
-        <v>0.2816247590335053</v>
+        <v>0.6771705376240078</v>
       </c>
       <c r="L4">
-        <v>0.46523669614227</v>
+        <v>0.3464937796358498</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.841724271868332</v>
+        <v>0.9405997444196874</v>
       </c>
       <c r="O4">
-        <v>3.607784496648605</v>
+        <v>1.584558762534769</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5775167512989867</v>
+        <v>0.8389584809713995</v>
       </c>
       <c r="C5">
-        <v>0.1246849962944836</v>
+        <v>0.07125249272411338</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2162242399714813</v>
+        <v>0.1074585253658888</v>
       </c>
       <c r="F5">
-        <v>2.014032112367232</v>
+        <v>0.9926022341975198</v>
       </c>
       <c r="G5">
-        <v>0.002475445204254105</v>
+        <v>0.000822434888881951</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.9615332325325561</v>
+        <v>0.4040530266987084</v>
       </c>
       <c r="J5">
-        <v>0.05183463364134511</v>
+        <v>0.05218071305017702</v>
       </c>
       <c r="K5">
-        <v>0.2733905660521998</v>
+        <v>0.6492006205460115</v>
       </c>
       <c r="L5">
-        <v>0.4629167362139839</v>
+        <v>0.3355735180071377</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.846353383873804</v>
+        <v>0.9510166348925253</v>
       </c>
       <c r="O5">
-        <v>3.614481360111611</v>
+        <v>1.584862283687357</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5759075741103459</v>
+        <v>0.8330967759765997</v>
       </c>
       <c r="C6">
-        <v>0.1246663426826089</v>
+        <v>0.07119295361044564</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2161794121211749</v>
+        <v>0.1070922022374674</v>
       </c>
       <c r="F6">
-        <v>2.014103825310045</v>
+        <v>0.9905472854442507</v>
       </c>
       <c r="G6">
-        <v>0.002475544449515498</v>
+        <v>0.0008225792300914914</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.9618727430939416</v>
+        <v>0.4042869400079283</v>
       </c>
       <c r="J6">
-        <v>0.05178259395823304</v>
+        <v>0.05203340484839103</v>
       </c>
       <c r="K6">
-        <v>0.2720238558545702</v>
+        <v>0.6445566932605118</v>
       </c>
       <c r="L6">
-        <v>0.4625345129168039</v>
+        <v>0.3337641487900669</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.84713033489777</v>
+        <v>0.9527614119230829</v>
       </c>
       <c r="O6">
-        <v>3.615618443539461</v>
+        <v>1.584954338371659</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5870942262278618</v>
+        <v>0.8738007267665182</v>
       </c>
       <c r="C7">
-        <v>0.1247958218255079</v>
+        <v>0.07160660924157369</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.216497866564314</v>
+        <v>0.1096440912949532</v>
       </c>
       <c r="F7">
-        <v>2.01369029500065</v>
+        <v>1.004942278691431</v>
       </c>
       <c r="G7">
-        <v>0.002474862020280049</v>
+        <v>0.0008215835896453407</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.9595520712851808</v>
+        <v>0.4027212081308278</v>
       </c>
       <c r="J7">
-        <v>0.05214319752741403</v>
+        <v>0.05305523488772224</v>
       </c>
       <c r="K7">
-        <v>0.2815136718714513</v>
+        <v>0.6767932899365263</v>
       </c>
       <c r="L7">
-        <v>0.4652052070985917</v>
+        <v>0.3463462384006135</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.841786145942478</v>
+        <v>0.9407392173604716</v>
       </c>
       <c r="O7">
-        <v>3.607873132084563</v>
+        <v>1.584560046653792</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6368789947517541</v>
+        <v>1.053920662758856</v>
       </c>
       <c r="C8">
-        <v>0.1253671862425101</v>
+        <v>0.07344268762900086</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2180833028298608</v>
+        <v>0.1211415896704935</v>
       </c>
       <c r="F8">
-        <v>2.013947627447394</v>
+        <v>1.071836470704866</v>
       </c>
       <c r="G8">
-        <v>0.002472009621604252</v>
+        <v>0.0008173428446101019</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.9501994290386442</v>
+        <v>0.3972822559235532</v>
       </c>
       <c r="J8">
-        <v>0.05371931087861626</v>
+        <v>0.05754918987997115</v>
       </c>
       <c r="K8">
-        <v>0.3234695156217811</v>
+        <v>0.8191686300926904</v>
       </c>
       <c r="L8">
-        <v>0.4774254637832627</v>
+        <v>0.4024750147756606</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.819408140957714</v>
+        <v>0.8899130794066004</v>
       </c>
       <c r="O8">
-        <v>3.577337997375651</v>
+        <v>1.589060367765313</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7359736962249031</v>
+        <v>1.409714392724652</v>
       </c>
       <c r="C9">
-        <v>0.1264870709153705</v>
+        <v>0.07709329358174699</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2218356817062563</v>
+        <v>0.1446284302303411</v>
       </c>
       <c r="F9">
-        <v>2.021916471368669</v>
+        <v>1.216368008885567</v>
       </c>
       <c r="G9">
-        <v>0.002466984056750266</v>
+        <v>0.0008095581279900395</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.9350464761932251</v>
+        <v>0.3922864439232896</v>
       </c>
       <c r="J9">
-        <v>0.05675487509728683</v>
+        <v>0.06631701447524208</v>
       </c>
       <c r="K9">
-        <v>0.4059993672380244</v>
+        <v>1.099396825931422</v>
       </c>
       <c r="L9">
-        <v>0.5029393190207401</v>
+        <v>0.5150896972755419</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.779851084915384</v>
+        <v>0.7986051831113059</v>
       </c>
       <c r="O9">
-        <v>3.530540360661064</v>
+        <v>1.622205838223977</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.809642788364954</v>
+        <v>1.673500536277743</v>
       </c>
       <c r="C10">
-        <v>0.1273091130642499</v>
+        <v>0.07981843102184882</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2249816295904488</v>
+        <v>0.1625493055925205</v>
       </c>
       <c r="F10">
-        <v>2.032308585001303</v>
+        <v>1.331937762246497</v>
       </c>
       <c r="G10">
-        <v>0.002463634675680951</v>
+        <v>0.0008041447621358389</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.9258534554900457</v>
+        <v>0.3924571501130245</v>
       </c>
       <c r="J10">
-        <v>0.05895104473497881</v>
+        <v>0.07274170290324378</v>
       </c>
       <c r="K10">
-        <v>0.4667694911910303</v>
+        <v>1.306531409763551</v>
       </c>
       <c r="L10">
-        <v>0.5226200075242673</v>
+        <v>0.5997558041844115</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.753421084668874</v>
+        <v>0.7369768187946608</v>
       </c>
       <c r="O10">
-        <v>3.504123992136329</v>
+        <v>1.663279354149807</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8433384940473161</v>
+        <v>1.794215083311286</v>
       </c>
       <c r="C11">
-        <v>0.1276828434241253</v>
+        <v>0.0810706212977621</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2264966541303366</v>
+        <v>0.1708679998595386</v>
       </c>
       <c r="F11">
-        <v>2.038018947827013</v>
+        <v>1.386843205800488</v>
       </c>
       <c r="G11">
-        <v>0.00246218469995168</v>
+        <v>0.0008017443932711013</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.9220918489796759</v>
+        <v>0.3934592600699105</v>
       </c>
       <c r="J11">
-        <v>0.0599426641885259</v>
+        <v>0.07566316416223984</v>
       </c>
       <c r="K11">
-        <v>0.4944409650541104</v>
+        <v>1.401182819293211</v>
       </c>
       <c r="L11">
-        <v>0.5317746079766295</v>
+        <v>0.6387800875576346</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.741968024462864</v>
+        <v>0.7102092138505665</v>
       </c>
       <c r="O11">
-        <v>3.493834467952155</v>
+        <v>1.686042248378129</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8561238646164497</v>
+        <v>1.84004635570551</v>
       </c>
       <c r="C12">
-        <v>0.1278243254187004</v>
+        <v>0.0815468743514387</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2270823582774071</v>
+        <v>0.1740438743261308</v>
       </c>
       <c r="F12">
-        <v>2.040322380871729</v>
+        <v>1.407995579252898</v>
       </c>
       <c r="G12">
-        <v>0.002461646172599945</v>
+        <v>0.0008008440238642112</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.920727818430457</v>
+        <v>0.3939797050181184</v>
       </c>
       <c r="J12">
-        <v>0.06031708483444831</v>
+        <v>0.07676947434354986</v>
       </c>
       <c r="K12">
-        <v>0.5049228313090737</v>
+        <v>1.437098826648281</v>
       </c>
       <c r="L12">
-        <v>0.5352700230551761</v>
+        <v>0.6536385096868571</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.737712982754159</v>
+        <v>0.7002628970542126</v>
       </c>
       <c r="O12">
-        <v>3.490186335517279</v>
+        <v>1.695288129277259</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8533691834740296</v>
+        <v>1.830170195545861</v>
       </c>
       <c r="C13">
-        <v>0.1277938567449297</v>
+        <v>0.08144420772384819</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2269556839444249</v>
+        <v>0.1733587165425092</v>
       </c>
       <c r="F13">
-        <v>2.039820027278935</v>
+        <v>1.403423563827545</v>
       </c>
       <c r="G13">
-        <v>0.002461761685723791</v>
+        <v>0.0008010375578080809</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.9210189007285621</v>
+        <v>0.3938612150380578</v>
       </c>
       <c r="J13">
-        <v>0.06023649511880791</v>
+        <v>0.07653120690537918</v>
       </c>
       <c r="K13">
-        <v>0.5026652372375224</v>
+        <v>1.429360191406204</v>
       </c>
       <c r="L13">
-        <v>0.5345159473963434</v>
+        <v>0.6504347648863416</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.738625735736269</v>
+        <v>0.7023964359969259</v>
       </c>
       <c r="O13">
-        <v>3.49096098527275</v>
+        <v>1.693268361030761</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.844389847027827</v>
+        <v>1.797983162054493</v>
       </c>
       <c r="C14">
-        <v>0.1276944841226495</v>
+        <v>0.08110975964214617</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2265446003215317</v>
+        <v>0.171128753657797</v>
       </c>
       <c r="F14">
-        <v>2.03820562768486</v>
+        <v>1.388576040016275</v>
       </c>
       <c r="G14">
-        <v>0.002462140183944909</v>
+        <v>0.0008016701490876136</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.921978418905482</v>
+        <v>0.393499204391226</v>
       </c>
       <c r="J14">
-        <v>0.05997348981870942</v>
+        <v>0.07575417955659702</v>
       </c>
       <c r="K14">
-        <v>0.4953032520924125</v>
+        <v>1.404136101667859</v>
       </c>
       <c r="L14">
-        <v>0.5320616027638891</v>
+        <v>0.6400008351312607</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.741616316497856</v>
+        <v>0.7093870705993357</v>
       </c>
       <c r="O14">
-        <v>3.493529358504816</v>
+        <v>1.6867901293393</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8388930457974482</v>
+        <v>1.778283710140073</v>
       </c>
       <c r="C15">
-        <v>0.1276336098170816</v>
+        <v>0.08090517952454945</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2262943600494296</v>
+        <v>0.1697662488831355</v>
       </c>
       <c r="F15">
-        <v>2.037235120220117</v>
+        <v>1.379529283772172</v>
       </c>
       <c r="G15">
-        <v>0.002462373396963511</v>
+        <v>0.0008020587385972118</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.9225740173350516</v>
+        <v>0.393296067500053</v>
       </c>
       <c r="J15">
-        <v>0.05981224982229705</v>
+        <v>0.07527823558881153</v>
       </c>
       <c r="K15">
-        <v>0.4907942335127018</v>
+        <v>1.388695585271762</v>
       </c>
       <c r="L15">
-        <v>0.5305619847602969</v>
+        <v>0.6336205030925868</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.743458810504306</v>
+        <v>0.7136940167502388</v>
       </c>
       <c r="O15">
-        <v>3.495134892225508</v>
+        <v>1.682904776478864</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8074443128443818</v>
+        <v>1.665627342608815</v>
       </c>
       <c r="C16">
-        <v>0.1272846836218022</v>
+        <v>0.07973687225675974</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2248843018233586</v>
+        <v>0.1620091622730335</v>
       </c>
       <c r="F16">
-        <v>2.031955152737822</v>
+        <v>1.328398636355885</v>
       </c>
       <c r="G16">
-        <v>0.00246373091338762</v>
+        <v>0.0008043028542813149</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.9261077405758478</v>
+        <v>0.3924109376182976</v>
       </c>
       <c r="J16">
-        <v>0.05888608922951732</v>
+        <v>0.0725507706029731</v>
       </c>
       <c r="K16">
-        <v>0.4649615858156437</v>
+        <v>1.300355313412979</v>
       </c>
       <c r="L16">
-        <v>0.5220257717165282</v>
+        <v>0.5972163567650597</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.754181041072012</v>
+        <v>0.7387522996768148</v>
       </c>
       <c r="O16">
-        <v>3.504831187063957</v>
+        <v>1.661877140832075</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7881978925869078</v>
+        <v>1.596711109541872</v>
       </c>
       <c r="C17">
-        <v>0.1270705651382542</v>
+        <v>0.07902354674088485</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2240407202154451</v>
+        <v>0.1572943322200935</v>
       </c>
       <c r="F17">
-        <v>2.028967602718225</v>
+        <v>1.297646622930742</v>
       </c>
       <c r="G17">
-        <v>0.002464582541523319</v>
+        <v>0.0008056952370682491</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.9283831993897209</v>
+        <v>0.3921102745810501</v>
       </c>
       <c r="J17">
-        <v>0.05831600571235285</v>
+        <v>0.07087738892801099</v>
       </c>
       <c r="K17">
-        <v>0.4491205549289248</v>
+        <v>1.246278836758506</v>
       </c>
       <c r="L17">
-        <v>0.5168405815055337</v>
+        <v>0.5750192396876912</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.760904797304631</v>
+        <v>0.7544547260925221</v>
       </c>
       <c r="O17">
-        <v>3.511221901607854</v>
+        <v>1.650049327234171</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7771451593285406</v>
+        <v>1.557138759255906</v>
       </c>
       <c r="C18">
-        <v>0.1269473896563014</v>
+        <v>0.07861442034428734</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2235634172460479</v>
+        <v>0.1545980324002052</v>
       </c>
       <c r="F18">
-        <v>2.027341779931504</v>
+        <v>1.280176775516068</v>
       </c>
       <c r="G18">
-        <v>0.002465079313072131</v>
+        <v>0.0008065019748957848</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.929731550136033</v>
+        <v>0.3920238457746308</v>
       </c>
       <c r="J18">
-        <v>0.05798741044019451</v>
+        <v>0.06991478315228505</v>
       </c>
       <c r="K18">
-        <v>0.4400117738906886</v>
+        <v>1.215214668086873</v>
       </c>
       <c r="L18">
-        <v>0.5138772022522033</v>
+        <v>0.5622994982104075</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.76482578204131</v>
+        <v>0.7636051541135487</v>
       </c>
       <c r="O18">
-        <v>3.515060270722074</v>
+        <v>1.643627639138259</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7734058896562033</v>
+        <v>1.543751177496915</v>
       </c>
       <c r="C19">
-        <v>0.1269056813872567</v>
+        <v>0.07847608832967268</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.223403170114878</v>
+        <v>0.1536877274101478</v>
       </c>
       <c r="F19">
-        <v>2.026807206791943</v>
+        <v>1.274298457845873</v>
       </c>
       <c r="G19">
-        <v>0.002465248704330542</v>
+        <v>0.0008067761419543047</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.9301948753330365</v>
+        <v>0.3920092029886924</v>
       </c>
       <c r="J19">
-        <v>0.05787603427156895</v>
+        <v>0.06958883518896997</v>
       </c>
       <c r="K19">
-        <v>0.436928154653458</v>
+        <v>1.204703239302745</v>
       </c>
       <c r="L19">
-        <v>0.5128771245631327</v>
+        <v>0.5580007403571585</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.766162575748996</v>
+        <v>0.7667235090178099</v>
       </c>
       <c r="O19">
-        <v>3.516387806565604</v>
+        <v>1.641517698164108</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7902449224420138</v>
+        <v>1.604040369628535</v>
       </c>
       <c r="C20">
-        <v>0.1270933605774687</v>
+        <v>0.07909935952818614</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2241297035080017</v>
+        <v>0.1577946120467892</v>
       </c>
       <c r="F20">
-        <v>2.029276057478597</v>
+        <v>1.300897495975235</v>
       </c>
       <c r="G20">
-        <v>0.002464491166760118</v>
+        <v>0.0008055464097279355</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.9281368781435368</v>
+        <v>0.3921332711676904</v>
       </c>
       <c r="J20">
-        <v>0.05837676446261142</v>
+        <v>0.07105553448009871</v>
       </c>
       <c r="K20">
-        <v>0.450806598860737</v>
+        <v>1.25203122634548</v>
       </c>
       <c r="L20">
-        <v>0.5173905886869221</v>
+        <v>0.5773771963541918</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.760183488532164</v>
+        <v>0.7527708253071452</v>
       </c>
       <c r="O20">
-        <v>3.510524771551502</v>
+        <v>1.651268670216496</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8470266092058694</v>
+        <v>1.807433901727279</v>
       </c>
       <c r="C21">
-        <v>0.127723673477611</v>
+        <v>0.08120793647773894</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2266650205026863</v>
+        <v>0.1717830333400059</v>
       </c>
       <c r="F21">
-        <v>2.03867599054297</v>
+        <v>1.392927112391178</v>
       </c>
       <c r="G21">
-        <v>0.002462028723834474</v>
+        <v>0.0008014841111815743</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.9216949459892874</v>
+        <v>0.3936016433656278</v>
       </c>
       <c r="J21">
-        <v>0.06005077040027018</v>
+        <v>0.07598240937429779</v>
       </c>
       <c r="K21">
-        <v>0.4974655611999026</v>
+        <v>1.411542927634258</v>
       </c>
       <c r="L21">
-        <v>0.5327817245216835</v>
+        <v>0.6430632785250197</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.740735685355023</v>
+        <v>0.7073285313451851</v>
       </c>
       <c r="O21">
-        <v>3.492768227487687</v>
+        <v>1.688675623483107</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8842852011589457</v>
+        <v>1.941067003336855</v>
       </c>
       <c r="C22">
-        <v>0.1281353725093979</v>
+        <v>0.08259826057292941</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2283918932574807</v>
+        <v>0.1810763911971591</v>
       </c>
       <c r="F22">
-        <v>2.045641352929835</v>
+        <v>1.455190246477713</v>
       </c>
       <c r="G22">
-        <v>0.00246048082854125</v>
+        <v>0.0007988791063217313</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.9178368592047192</v>
+        <v>0.3953870714737135</v>
       </c>
       <c r="J22">
-        <v>0.06113850353263928</v>
+        <v>0.07920259371620375</v>
       </c>
       <c r="K22">
-        <v>0.5279787374518889</v>
+        <v>1.516228326113264</v>
       </c>
       <c r="L22">
-        <v>0.5430082806116161</v>
+        <v>0.6864675938451938</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.728503290168614</v>
+        <v>0.6787407354759392</v>
       </c>
       <c r="O22">
-        <v>3.482610454276937</v>
+        <v>1.716792665973088</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8643862731896945</v>
+        <v>1.869674466398806</v>
       </c>
       <c r="C23">
-        <v>0.127915666808164</v>
+        <v>0.08185499934933915</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2274638563635705</v>
+        <v>0.1761018872145002</v>
       </c>
       <c r="F23">
-        <v>2.041848698621237</v>
+        <v>1.421756731006795</v>
       </c>
       <c r="G23">
-        <v>0.002461301361981005</v>
+        <v>0.0008002649962089148</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.9198637887482732</v>
+        <v>0.3943558110252638</v>
       </c>
       <c r="J23">
-        <v>0.06055854402767125</v>
+        <v>0.07748384045237344</v>
       </c>
       <c r="K23">
-        <v>0.5116917481567498</v>
+        <v>1.460311571768557</v>
       </c>
       <c r="L23">
-        <v>0.5375349248566579</v>
+        <v>0.6632558408682172</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.734988221724409</v>
+        <v>0.6938942075768644</v>
       </c>
       <c r="O23">
-        <v>3.487899471501805</v>
+        <v>1.701436559569743</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7893194219000463</v>
+        <v>1.600726661256715</v>
       </c>
       <c r="C24">
-        <v>0.127083054995019</v>
+        <v>0.07906508155399194</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2240894502238504</v>
+        <v>0.1575683910749426</v>
       </c>
       <c r="F24">
-        <v>2.029136319235931</v>
+        <v>1.299427124406748</v>
       </c>
       <c r="G24">
-        <v>0.002464532454944649</v>
+        <v>0.0008056136751085529</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.9282481148827664</v>
+        <v>0.3921226058136185</v>
       </c>
       <c r="J24">
-        <v>0.05834929806743006</v>
+        <v>0.07097499662269158</v>
       </c>
       <c r="K24">
-        <v>0.4500443432185648</v>
+        <v>1.249430493708758</v>
       </c>
       <c r="L24">
-        <v>0.5171418754277113</v>
+        <v>0.5763110348959088</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.760509419635669</v>
+        <v>0.753531734644918</v>
       </c>
       <c r="O24">
-        <v>3.510839432373814</v>
+        <v>1.650716229963535</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7090120173540981</v>
+        <v>1.313105839375311</v>
       </c>
       <c r="C25">
-        <v>0.126184213574021</v>
+        <v>0.0760991243929503</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2207520121553372</v>
+        <v>0.1381647717472205</v>
       </c>
       <c r="F25">
-        <v>2.018962931280242</v>
+        <v>1.175714916385786</v>
       </c>
       <c r="G25">
-        <v>0.002468283147464557</v>
+        <v>0.000811609007858566</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.9388048512093086</v>
+        <v>0.3929925532731531</v>
       </c>
       <c r="J25">
-        <v>0.05593962528680407</v>
+        <v>0.06394884841557413</v>
       </c>
       <c r="K25">
-        <v>0.3836476438274872</v>
+        <v>1.023415462871156</v>
       </c>
       <c r="L25">
-        <v>0.4958721639302155</v>
+        <v>0.4843143475675902</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.790089676678928</v>
+        <v>0.8223755225542391</v>
       </c>
       <c r="O25">
-        <v>3.541800821025717</v>
+        <v>1.610446457317408</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_34/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_34/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.102870285814305</v>
+        <v>2.090256810061817</v>
       </c>
       <c r="C2">
-        <v>0.0739431353139075</v>
+        <v>0.6162583872770142</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1243172326053958</v>
+        <v>1.373769335935734</v>
       </c>
       <c r="F2">
-        <v>1.09082136151234</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.0008162304099902542</v>
+        <v>0.2378732313230856</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.01338160531742949</v>
       </c>
       <c r="I2">
-        <v>0.3961787637823306</v>
+        <v>0.008151029602161852</v>
       </c>
       <c r="J2">
-        <v>0.05876342852065974</v>
+        <v>0.2005290557315504</v>
       </c>
       <c r="K2">
-        <v>0.8577932336325205</v>
+        <v>0.1353610855441705</v>
       </c>
       <c r="L2">
-        <v>0.4178422232163257</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.87669509071827</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.591859061450975</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0.8980109429487442</v>
+      </c>
+      <c r="Q2">
+        <v>0.8747425569327163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9610796679227178</v>
+        <v>1.823490272939608</v>
       </c>
       <c r="C3">
-        <v>0.07249519954512351</v>
+        <v>0.54857264940199</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1151760728984961</v>
+        <v>1.202029404357106</v>
       </c>
       <c r="F3">
-        <v>1.036741354203372</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.0008194975075378873</v>
+        <v>0.2176452147431647</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.01024288334697667</v>
       </c>
       <c r="I3">
-        <v>0.3997992587058725</v>
+        <v>0.006430207354025441</v>
       </c>
       <c r="J3">
-        <v>0.05523818825012583</v>
+        <v>0.1947744438896422</v>
       </c>
       <c r="K3">
-        <v>0.7458350163403509</v>
+        <v>0.138575663918207</v>
       </c>
       <c r="L3">
-        <v>0.3734571641455631</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9156553481541909</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.585537847218916</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0.8686905001913203</v>
+      </c>
+      <c r="Q3">
+        <v>0.8195534263237221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.874277252444017</v>
+        <v>1.658872657127148</v>
       </c>
       <c r="C4">
-        <v>0.07161145486932696</v>
+        <v>0.5072042507110268</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1096740768691546</v>
+        <v>1.096670320565423</v>
       </c>
       <c r="F4">
-        <v>1.005112507305128</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.0008215720239013966</v>
+        <v>0.2054664725183031</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.008464419609077151</v>
       </c>
       <c r="I4">
-        <v>0.4027036743455454</v>
+        <v>0.005471717692904665</v>
       </c>
       <c r="J4">
-        <v>0.05306718279859979</v>
+        <v>0.1914213783042413</v>
       </c>
       <c r="K4">
-        <v>0.6771705376240078</v>
+        <v>0.1407463062645036</v>
       </c>
       <c r="L4">
-        <v>0.3464937796358498</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9405997444196874</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.584558762534769</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0.851363376526038</v>
+      </c>
+      <c r="Q4">
+        <v>0.7865494434543763</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8389584809713995</v>
+        <v>1.590579837893813</v>
       </c>
       <c r="C5">
-        <v>0.07125249272411338</v>
+        <v>0.4910769346601569</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1074585253658888</v>
+        <v>1.053728381257216</v>
       </c>
       <c r="F5">
-        <v>0.9926022341975198</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.000822434888881951</v>
+        <v>0.2002440945828852</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.007772473913567779</v>
       </c>
       <c r="I5">
-        <v>0.4040530266987084</v>
+        <v>0.005155235716203688</v>
       </c>
       <c r="J5">
-        <v>0.05218071305017702</v>
+        <v>0.1899347230337796</v>
       </c>
       <c r="K5">
-        <v>0.6492006205460115</v>
+        <v>0.1414999420593244</v>
       </c>
       <c r="L5">
-        <v>0.3355735180071377</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9510166348925253</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.584862283687357</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0.8450308281111063</v>
+      </c>
+      <c r="Q5">
+        <v>0.7722963118571045</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8330967759765997</v>
+        <v>1.578000710111098</v>
       </c>
       <c r="C6">
-        <v>0.07119295361044564</v>
+        <v>0.4892446843905702</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1070922022374674</v>
+        <v>1.046579687699577</v>
       </c>
       <c r="F6">
-        <v>0.9905472854442507</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.0008225792300914914</v>
+        <v>0.1989956505703248</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.007657823560433485</v>
       </c>
       <c r="I6">
-        <v>0.4042869400079283</v>
+        <v>0.005174290589885722</v>
       </c>
       <c r="J6">
-        <v>0.05203340484839103</v>
+        <v>0.1894909722906064</v>
       </c>
       <c r="K6">
-        <v>0.6445566932605118</v>
+        <v>0.1414106394137544</v>
       </c>
       <c r="L6">
-        <v>0.3337641487900669</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9527614119230829</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.584954338371659</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0.8446815038785331</v>
+      </c>
+      <c r="Q6">
+        <v>0.7687086634226148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8738007267665182</v>
+        <v>1.654591039845343</v>
       </c>
       <c r="C7">
-        <v>0.07160660924157369</v>
+        <v>0.5092959801273196</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1096440912949532</v>
+        <v>1.096041246831845</v>
       </c>
       <c r="F7">
-        <v>1.004942278691431</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.0008215835896453407</v>
+        <v>0.2043442895041139</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.008450043694937515</v>
       </c>
       <c r="I7">
-        <v>0.4027212081308278</v>
+        <v>0.005645495047183147</v>
       </c>
       <c r="J7">
-        <v>0.05305523488772224</v>
+        <v>0.1908565210153412</v>
       </c>
       <c r="K7">
-        <v>0.6767932899365263</v>
+        <v>0.1401633765531241</v>
       </c>
       <c r="L7">
-        <v>0.3463462384006135</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9407392173604716</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1.584560046653792</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0.8531825778307791</v>
+      </c>
+      <c r="Q7">
+        <v>0.7829861056694938</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.053920662758856</v>
+        <v>1.99395211424627</v>
       </c>
       <c r="C8">
-        <v>0.07344268762900086</v>
+        <v>0.5959649380849896</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1211415896704935</v>
+        <v>1.314459039951444</v>
       </c>
       <c r="F8">
-        <v>1.071836470704866</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.0008173428446101019</v>
+        <v>0.2294487299300414</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.01225921612213959</v>
       </c>
       <c r="I8">
-        <v>0.3972822559235532</v>
+        <v>0.007749112257133817</v>
       </c>
       <c r="J8">
-        <v>0.05754918987997115</v>
+        <v>0.197785869586653</v>
       </c>
       <c r="K8">
-        <v>0.8191686300926904</v>
+        <v>0.1356470700400028</v>
       </c>
       <c r="L8">
-        <v>0.4024750147756606</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8899130794066004</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.589060367765313</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0.8903415388287215</v>
+      </c>
+      <c r="Q8">
+        <v>0.851051122251107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.409714392724652</v>
+        <v>2.659107058974541</v>
       </c>
       <c r="C9">
-        <v>0.07709329358174699</v>
+        <v>0.763500933927304</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1446284302303411</v>
+        <v>1.744299970180109</v>
       </c>
       <c r="F9">
-        <v>1.216368008885567</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.0008095581279900395</v>
+        <v>0.282756016614286</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.02106845277750091</v>
       </c>
       <c r="I9">
-        <v>0.3922864439232896</v>
+        <v>0.01247967974126052</v>
       </c>
       <c r="J9">
-        <v>0.06631701447524208</v>
+        <v>0.2138975536266656</v>
       </c>
       <c r="K9">
-        <v>1.099396825931422</v>
+        <v>0.1295166096464655</v>
       </c>
       <c r="L9">
-        <v>0.5150896972755419</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7986051831113059</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1.622205838223977</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0.9653344326011393</v>
+      </c>
+      <c r="Q9">
+        <v>0.9984016547327883</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.673500536277743</v>
+        <v>3.130216614815993</v>
       </c>
       <c r="C10">
-        <v>0.07981843102184882</v>
+        <v>0.8827465175267548</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1625493055925205</v>
+        <v>1.959628156968833</v>
       </c>
       <c r="F10">
-        <v>1.331937762246497</v>
+        <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.0008041447621358389</v>
+        <v>0.3167168841036414</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.02783403537167572</v>
       </c>
       <c r="I10">
-        <v>0.3924571501130245</v>
+        <v>0.01658186642785964</v>
       </c>
       <c r="J10">
-        <v>0.07274170290324378</v>
+        <v>0.2234862392916455</v>
       </c>
       <c r="K10">
-        <v>1.306531409763551</v>
+        <v>0.1241576143884018</v>
       </c>
       <c r="L10">
-        <v>0.5997558041844115</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7369768187946608</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>1.663279354149807</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>1.032682697882549</v>
+      </c>
+      <c r="Q10">
+        <v>1.090878021340131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.794215083311286</v>
+        <v>3.231953419423348</v>
       </c>
       <c r="C11">
-        <v>0.0810706212977621</v>
+        <v>0.8854214997153349</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1708679998595386</v>
+        <v>1.267912298769943</v>
       </c>
       <c r="F11">
-        <v>1.386843205800488</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.0008017443932711013</v>
+        <v>0.2770944484269791</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.04279956632689874</v>
       </c>
       <c r="I11">
-        <v>0.3934592600699105</v>
+        <v>0.0178036007365856</v>
       </c>
       <c r="J11">
-        <v>0.07566316416223984</v>
+        <v>0.2010501335507371</v>
       </c>
       <c r="K11">
-        <v>1.401182819293211</v>
+        <v>0.1069086353076809</v>
       </c>
       <c r="L11">
-        <v>0.6387800875576346</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7102092138505665</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>1.686042248378129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>1.135004751295384</v>
+      </c>
+      <c r="Q11">
+        <v>0.9600027633119055</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.84004635570551</v>
+        <v>3.223091707417268</v>
       </c>
       <c r="C12">
-        <v>0.0815468743514387</v>
+        <v>0.8593540434493718</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1740438743261308</v>
+        <v>0.7711514199652783</v>
       </c>
       <c r="F12">
-        <v>1.407995579252898</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.0008008440238642112</v>
+        <v>0.2402600364420877</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.07851310994715988</v>
       </c>
       <c r="I12">
-        <v>0.3939797050181184</v>
+        <v>0.0177257256443939</v>
       </c>
       <c r="J12">
-        <v>0.07676947434354986</v>
+        <v>0.1816484182793943</v>
       </c>
       <c r="K12">
-        <v>1.437098826648281</v>
+        <v>0.09536801219155677</v>
       </c>
       <c r="L12">
-        <v>0.6536385096868571</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7002628970542126</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>1.695288129277259</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>1.207439874730966</v>
+      </c>
+      <c r="Q12">
+        <v>0.8413044718114406</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.830170195545861</v>
+        <v>3.123508750028577</v>
       </c>
       <c r="C13">
-        <v>0.08144420772384819</v>
+        <v>0.8136253478899391</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1733587165425092</v>
+        <v>0.3952013423796501</v>
       </c>
       <c r="F13">
-        <v>1.403423563827545</v>
+        <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>0.0008010375578080809</v>
+        <v>0.2018868451253226</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1314785452493084</v>
       </c>
       <c r="I13">
-        <v>0.3938612150380578</v>
+        <v>0.01692542853108669</v>
       </c>
       <c r="J13">
-        <v>0.07653120690537918</v>
+        <v>0.1626097392756591</v>
       </c>
       <c r="K13">
-        <v>1.429360191406204</v>
+        <v>0.08654920808068844</v>
       </c>
       <c r="L13">
-        <v>0.6504347648863416</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7023964359969259</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>1.693268361030761</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>1.262991946415866</v>
+      </c>
+      <c r="Q13">
+        <v>0.7200366694671203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.797983162054493</v>
+        <v>3.012216339747624</v>
       </c>
       <c r="C14">
-        <v>0.08110975964214617</v>
+        <v>0.773802452248475</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.171128753657797</v>
+        <v>0.2049944207151952</v>
       </c>
       <c r="F14">
-        <v>1.388576040016275</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.0008016701490876136</v>
+        <v>0.1746251790979159</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1790542200998857</v>
       </c>
       <c r="I14">
-        <v>0.393499204391226</v>
+        <v>0.01613448765109116</v>
       </c>
       <c r="J14">
-        <v>0.07575417955659702</v>
+        <v>0.149527245905432</v>
       </c>
       <c r="K14">
-        <v>1.404136101667859</v>
+        <v>0.08166393386904325</v>
       </c>
       <c r="L14">
-        <v>0.6400008351312607</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7093870705993357</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>1.6867901293393</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>1.29484990476783</v>
+      </c>
+      <c r="Q14">
+        <v>0.6347821817456776</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.778283710140073</v>
+        <v>2.964699841953973</v>
       </c>
       <c r="C15">
-        <v>0.08090517952454945</v>
+        <v>0.7607822778025195</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1697662488831355</v>
+        <v>0.1677657289227064</v>
       </c>
       <c r="F15">
-        <v>1.379529283772172</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.0008020587385972118</v>
+        <v>0.1671392929054747</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1909866262330553</v>
       </c>
       <c r="I15">
-        <v>0.393296067500053</v>
+        <v>0.01587179385065873</v>
       </c>
       <c r="J15">
-        <v>0.07527823558881153</v>
+        <v>0.1461909684817542</v>
       </c>
       <c r="K15">
-        <v>1.388695585271762</v>
+        <v>0.08080250961254265</v>
       </c>
       <c r="L15">
-        <v>0.6336205030925868</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7136940167502388</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>1.682904776478864</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>1.299364615825695</v>
+      </c>
+      <c r="Q15">
+        <v>0.6118936571641171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.665627342608815</v>
+        <v>2.783031856042101</v>
       </c>
       <c r="C16">
-        <v>0.07973687225675974</v>
+        <v>0.7215289158148721</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1620091622730335</v>
+        <v>0.1650946460221405</v>
       </c>
       <c r="F16">
-        <v>1.328398636355885</v>
+        <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0.0008043028542813149</v>
+        <v>0.1605256779251505</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1761727537681566</v>
       </c>
       <c r="I16">
-        <v>0.3924109376182976</v>
+        <v>0.01440681340232608</v>
       </c>
       <c r="J16">
-        <v>0.0725507706029731</v>
+        <v>0.1458270628002865</v>
       </c>
       <c r="K16">
-        <v>1.300355313412979</v>
+        <v>0.08444200032565963</v>
       </c>
       <c r="L16">
-        <v>0.5972163567650597</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7387522996768148</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>1.661877140832075</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>1.256879121792409</v>
+      </c>
+      <c r="Q16">
+        <v>0.5969485043052316</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.596711109541872</v>
+        <v>2.702438211642686</v>
       </c>
       <c r="C17">
-        <v>0.07902354674088485</v>
+        <v>0.7124292461805908</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1572943322200935</v>
+        <v>0.2505636728370533</v>
       </c>
       <c r="F17">
-        <v>1.297646622930742</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.0008056952370682491</v>
+        <v>0.1696030305529206</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1376617573646399</v>
       </c>
       <c r="I17">
-        <v>0.3921102745810501</v>
+        <v>0.01371510302274537</v>
       </c>
       <c r="J17">
-        <v>0.07087738892801099</v>
+        <v>0.1524021343553699</v>
       </c>
       <c r="K17">
-        <v>1.246278836758506</v>
+        <v>0.08976033803856076</v>
       </c>
       <c r="L17">
-        <v>0.5750192396876912</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7544547260925221</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>1.650049327234171</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>1.207885855728136</v>
+      </c>
+      <c r="Q17">
+        <v>0.6298701471082779</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.557138759255906</v>
+        <v>2.702320115629391</v>
       </c>
       <c r="C18">
-        <v>0.07861442034428734</v>
+        <v>0.7268004538272237</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1545980324002052</v>
+        <v>0.4851119533046884</v>
       </c>
       <c r="F18">
-        <v>1.280176775516068</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.0008065019748957848</v>
+        <v>0.195015139431753</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.08564598043407301</v>
       </c>
       <c r="I18">
-        <v>0.3920238457746308</v>
+        <v>0.01339604410023654</v>
       </c>
       <c r="J18">
-        <v>0.06991478315228505</v>
+        <v>0.1664459311816202</v>
       </c>
       <c r="K18">
-        <v>1.215214668086873</v>
+        <v>0.09791721751356874</v>
       </c>
       <c r="L18">
-        <v>0.5622994982104075</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7636051541135487</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>1.643627639138259</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>1.146910519249857</v>
+      </c>
+      <c r="Q18">
+        <v>0.7131196772802895</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.543751177496915</v>
+        <v>2.760981625869022</v>
       </c>
       <c r="C19">
-        <v>0.07847608832967268</v>
+        <v>0.7642904850644356</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1536877274101478</v>
+        <v>0.9205749304574056</v>
       </c>
       <c r="F19">
-        <v>1.274298457845873</v>
+        <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.0008067761419543047</v>
+        <v>0.2321653967788251</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.04319525302800997</v>
       </c>
       <c r="I19">
-        <v>0.3920092029886924</v>
+        <v>0.01391826024858744</v>
       </c>
       <c r="J19">
-        <v>0.06958883518896997</v>
+        <v>0.1854094665713504</v>
       </c>
       <c r="K19">
-        <v>1.204703239302745</v>
+        <v>0.1078550167869636</v>
       </c>
       <c r="L19">
-        <v>0.5580007403571585</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7667235090178099</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>1.641517698164108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>1.086897813195392</v>
+      </c>
+      <c r="Q19">
+        <v>0.8316126496749234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.604040369628535</v>
+        <v>2.995503981315608</v>
       </c>
       <c r="C20">
-        <v>0.07909935952818614</v>
+        <v>0.8585120594328828</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1577946120467892</v>
+        <v>1.898576310027991</v>
       </c>
       <c r="F20">
-        <v>1.300897495975235</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.0008055464097279355</v>
+        <v>0.3041278718490332</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.02591540043084706</v>
       </c>
       <c r="I20">
-        <v>0.3921332711676904</v>
+        <v>0.01605411483630892</v>
       </c>
       <c r="J20">
-        <v>0.07105553448009871</v>
+        <v>0.2190798180397024</v>
       </c>
       <c r="K20">
-        <v>1.25203122634548</v>
+        <v>0.1236220600760358</v>
       </c>
       <c r="L20">
-        <v>0.5773771963541918</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7527708253071452</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>1.651268670216496</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>1.021445830360705</v>
+      </c>
+      <c r="Q20">
+        <v>1.054858449611032</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.807433901727279</v>
+        <v>3.37687081561478</v>
       </c>
       <c r="C21">
-        <v>0.08120793647773894</v>
+        <v>0.9590259393450253</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1717830333400059</v>
+        <v>2.223006899054226</v>
       </c>
       <c r="F21">
-        <v>1.392927112391178</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.0008014841111815743</v>
+        <v>0.3414476684990717</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.03263731846508788</v>
       </c>
       <c r="I21">
-        <v>0.3936016433656278</v>
+        <v>0.01953468119125645</v>
       </c>
       <c r="J21">
-        <v>0.07598240937429779</v>
+        <v>0.2319928749581095</v>
       </c>
       <c r="K21">
-        <v>1.411542927634258</v>
+        <v>0.1230171648770728</v>
       </c>
       <c r="L21">
-        <v>0.6430632785250197</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7073285313451851</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>1.688675623483107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>1.06177349860765</v>
+      </c>
+      <c r="Q21">
+        <v>1.161328564773754</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.941067003336855</v>
+        <v>3.623875201583814</v>
       </c>
       <c r="C22">
-        <v>0.08259826057292941</v>
+        <v>1.018695386753052</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1810763911971591</v>
+        <v>2.383735285177352</v>
       </c>
       <c r="F22">
-        <v>1.455190246477713</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.0007988791063217313</v>
+        <v>0.3644159070130826</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.03691923045090162</v>
       </c>
       <c r="I22">
-        <v>0.3953870714737135</v>
+        <v>0.02166309289708668</v>
       </c>
       <c r="J22">
-        <v>0.07920259371620375</v>
+        <v>0.2398241969061843</v>
       </c>
       <c r="K22">
-        <v>1.516228326113264</v>
+        <v>0.1227518616201273</v>
       </c>
       <c r="L22">
-        <v>0.6864675938451938</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6787407354759392</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>1.716792665973088</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>1.09001350979598</v>
+      </c>
+      <c r="Q22">
+        <v>1.226613615756008</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.869674466398806</v>
+        <v>3.496202341834419</v>
       </c>
       <c r="C23">
-        <v>0.08185499934933915</v>
+        <v>0.9839761501621638</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1761018872145002</v>
+        <v>2.297942890438463</v>
       </c>
       <c r="F23">
-        <v>1.421756731006795</v>
+        <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.0008002649962089148</v>
+        <v>0.3533640863549152</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.03461800514858737</v>
       </c>
       <c r="I23">
-        <v>0.3943558110252638</v>
+        <v>0.02027756933722369</v>
       </c>
       <c r="J23">
-        <v>0.07748384045237344</v>
+        <v>0.2362573129074548</v>
       </c>
       <c r="K23">
-        <v>1.460311571768557</v>
+        <v>0.1235448361646938</v>
       </c>
       <c r="L23">
-        <v>0.6632558408682172</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6938942075768644</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>1.701436559569743</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>1.072402595195527</v>
+      </c>
+      <c r="Q23">
+        <v>1.195611843802709</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.600726661256715</v>
+        <v>3.005120983647657</v>
       </c>
       <c r="C24">
-        <v>0.07906508155399194</v>
+        <v>0.8576598208692587</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1575683910749426</v>
+        <v>1.974362105669385</v>
       </c>
       <c r="F24">
-        <v>1.299427124406748</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.0008056136751085529</v>
+        <v>0.3104846227079463</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.02640880492611508</v>
       </c>
       <c r="I24">
-        <v>0.3921226058136185</v>
+        <v>0.01571781762134705</v>
       </c>
       <c r="J24">
-        <v>0.07097499662269158</v>
+        <v>0.2222944969571472</v>
       </c>
       <c r="K24">
-        <v>1.249430493708758</v>
+        <v>0.1260451614843845</v>
       </c>
       <c r="L24">
-        <v>0.5763110348959088</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.753531734644918</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>1.650716229963535</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>1.011223387704533</v>
+      </c>
+      <c r="Q24">
+        <v>1.075068630755766</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.313105839375311</v>
+        <v>2.473624492715714</v>
       </c>
       <c r="C25">
-        <v>0.0760991243929503</v>
+        <v>0.7222284484530519</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1381647717472205</v>
+        <v>1.627663295587354</v>
       </c>
       <c r="F25">
-        <v>1.175714916385786</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.000811609007858566</v>
+        <v>0.2661487218716161</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.01850991178785111</v>
       </c>
       <c r="I25">
-        <v>0.3929925532731531</v>
+        <v>0.01141239934960492</v>
       </c>
       <c r="J25">
-        <v>0.06394884841557413</v>
+        <v>0.2083740790411568</v>
       </c>
       <c r="K25">
-        <v>1.023415462871156</v>
+        <v>0.1299265972477848</v>
       </c>
       <c r="L25">
-        <v>0.4843143475675902</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8223755225542391</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>1.610446457317408</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.9480396262053716</v>
+      </c>
+      <c r="Q25">
+        <v>0.9514706595555822</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_34/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_34/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,46 +421,52 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.090256810061817</v>
+        <v>2.055125565518154</v>
       </c>
       <c r="C2">
-        <v>0.6162583872770142</v>
+        <v>0.6320686627844907</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.373769335935734</v>
+        <v>1.369857164612696</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.2378732313230856</v>
+        <v>0.2157389455143175</v>
       </c>
       <c r="H2">
-        <v>0.01338160531742949</v>
+        <v>0.01293934033862132</v>
       </c>
       <c r="I2">
-        <v>0.008151029602161852</v>
+        <v>0.007666910529844806</v>
       </c>
       <c r="J2">
-        <v>0.2005290557315504</v>
+        <v>0.2420288960714032</v>
       </c>
       <c r="K2">
-        <v>0.1353610855441705</v>
+        <v>0.1319459525128455</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.09987437930837828</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.01821635143007772</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -469,51 +475,57 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8980109429487442</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.8747425569327163</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.920460985539421</v>
+      </c>
+      <c r="S2">
+        <v>0.8542155760758732</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.823490272939608</v>
+        <v>1.798812331849945</v>
       </c>
       <c r="C3">
-        <v>0.54857264940199</v>
+        <v>0.5573996235980587</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.202029404357106</v>
+        <v>1.199005672091985</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.2176452147431647</v>
+        <v>0.197507727158893</v>
       </c>
       <c r="H3">
-        <v>0.01024288334697667</v>
+        <v>0.009927715180966383</v>
       </c>
       <c r="I3">
-        <v>0.006430207354025441</v>
+        <v>0.006181450981086467</v>
       </c>
       <c r="J3">
-        <v>0.1947744438896422</v>
+        <v>0.2363856191988987</v>
       </c>
       <c r="K3">
-        <v>0.138575663918207</v>
+        <v>0.1359034622066648</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1046756602047143</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.01753989669714073</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -522,51 +534,57 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8686905001913203</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.8195534263237221</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.8842164865863396</v>
+      </c>
+      <c r="S3">
+        <v>0.8067587256617372</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.658872657127148</v>
+        <v>1.640368798726684</v>
       </c>
       <c r="C4">
-        <v>0.5072042507110268</v>
+        <v>0.5118929259209324</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.096670320565423</v>
+        <v>1.094166347083387</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.2054664725183031</v>
+        <v>0.1865223295801286</v>
       </c>
       <c r="H4">
-        <v>0.008464419609077151</v>
+        <v>0.008218885834915868</v>
       </c>
       <c r="I4">
-        <v>0.005471717692904665</v>
+        <v>0.005353944874971983</v>
       </c>
       <c r="J4">
-        <v>0.1914213783042413</v>
+        <v>0.2329656266420557</v>
       </c>
       <c r="K4">
-        <v>0.1407463062645036</v>
+        <v>0.1384755449884665</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.107814812787618</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.0175458840258198</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -575,51 +593,57 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.851363376526038</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.7865494434543763</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.8627538002028103</v>
+      </c>
+      <c r="S4">
+        <v>0.7781943889144145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.590579837893813</v>
+        <v>1.574538187787141</v>
       </c>
       <c r="C5">
-        <v>0.4910769346601569</v>
+        <v>0.494127669011732</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.053728381257216</v>
+        <v>1.051431347955599</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.2002440945828852</v>
+        <v>0.1817852076794395</v>
       </c>
       <c r="H5">
-        <v>0.007772473913567779</v>
+        <v>0.007553470762269476</v>
       </c>
       <c r="I5">
-        <v>0.005155235716203688</v>
+        <v>0.005100850188504147</v>
       </c>
       <c r="J5">
-        <v>0.1899347230337796</v>
+        <v>0.2314138407783375</v>
       </c>
       <c r="K5">
-        <v>0.1414999420593244</v>
+        <v>0.139385709956418</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1090357415678262</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.01762701141604861</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -628,51 +652,57 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8450308281111063</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.7722963118571045</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.8547745019287021</v>
+      </c>
+      <c r="S5">
+        <v>0.765687550611986</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.578000710111098</v>
+        <v>1.562371573246338</v>
       </c>
       <c r="C6">
-        <v>0.4892446843905702</v>
+        <v>0.4920394044956709</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.046579687699577</v>
+        <v>1.044317491865073</v>
       </c>
       <c r="F6">
         <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.1989956505703248</v>
+        <v>0.1806261114590626</v>
       </c>
       <c r="H6">
-        <v>0.007657823560433485</v>
+        <v>0.007443199844827553</v>
       </c>
       <c r="I6">
-        <v>0.005174290589885722</v>
+        <v>0.005147751072562379</v>
       </c>
       <c r="J6">
-        <v>0.1894909722906064</v>
+        <v>0.2309509738764746</v>
       </c>
       <c r="K6">
-        <v>0.1414106394137544</v>
+        <v>0.1393293748315401</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1091122570776317</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.01761436279184991</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -681,51 +711,57 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8446815038785331</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.7687086634226148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.8541646790259279</v>
+      </c>
+      <c r="S6">
+        <v>0.7624000946799612</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.654591039845343</v>
+        <v>1.634919019818994</v>
       </c>
       <c r="C7">
-        <v>0.5092959801273196</v>
+        <v>0.5132071437124921</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.096041246831845</v>
+        <v>1.093497344091602</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.2043442895041139</v>
+        <v>0.1878374228112705</v>
       </c>
       <c r="H7">
-        <v>0.008450043694937515</v>
+        <v>0.008200729478312158</v>
       </c>
       <c r="I7">
-        <v>0.005645495047183147</v>
+        <v>0.005567960216834145</v>
       </c>
       <c r="J7">
-        <v>0.1908565210153412</v>
+        <v>0.2287111558648576</v>
       </c>
       <c r="K7">
-        <v>0.1401633765531241</v>
+        <v>0.137720803073897</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1073731874323371</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.01741181701404493</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -734,51 +770,57 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.8531825778307791</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.7829861056694938</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.8653066603074819</v>
+      </c>
+      <c r="S7">
+        <v>0.7724476123720336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.99395211424627</v>
+        <v>1.958416931837633</v>
       </c>
       <c r="C8">
-        <v>0.5959649380849896</v>
+        <v>0.6067244272154255</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.314459039951444</v>
+        <v>1.310713977962067</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.2294487299300414</v>
+        <v>0.2161182475964694</v>
       </c>
       <c r="H8">
-        <v>0.01225921612213959</v>
+        <v>0.01184673994114838</v>
       </c>
       <c r="I8">
-        <v>0.007749112257133817</v>
+        <v>0.0073848183186076</v>
       </c>
       <c r="J8">
-        <v>0.197785869586653</v>
+        <v>0.227371164485703</v>
       </c>
       <c r="K8">
-        <v>0.1356470700400028</v>
+        <v>0.1319019833874666</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1007656842580591</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.01755334336599113</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -787,51 +829,57 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8903415388287215</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.851051122251107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.9129186892378982</v>
+      </c>
+      <c r="S8">
+        <v>0.8258717968027867</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.659107058974541</v>
+        <v>2.594817025937573</v>
       </c>
       <c r="C9">
-        <v>0.763500933927304</v>
+        <v>0.7916735116986331</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.744299970180109</v>
+        <v>1.738102830151504</v>
       </c>
       <c r="F9">
         <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.282756016614286</v>
+        <v>0.2665274990304098</v>
       </c>
       <c r="H9">
-        <v>0.02106845277750091</v>
+        <v>0.0202742854389637</v>
       </c>
       <c r="I9">
-        <v>0.01247967974126052</v>
+        <v>0.01137416291420301</v>
       </c>
       <c r="J9">
-        <v>0.2138975536266656</v>
+        <v>0.2390805808767382</v>
       </c>
       <c r="K9">
-        <v>0.1295166096464655</v>
+        <v>0.1234111616107061</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.09026753342127236</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.02160359953879087</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -840,51 +888,57 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.9653344326011393</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.9984016547327883</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>1.006589425661659</v>
+      </c>
+      <c r="S9">
+        <v>0.9499589591899849</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.130216614815993</v>
+        <v>3.037374748631748</v>
       </c>
       <c r="C10">
-        <v>0.8827465175267548</v>
+        <v>0.9186906756537212</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.959628156968833</v>
+        <v>1.951405743484457</v>
       </c>
       <c r="F10">
         <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.3167168841036414</v>
+        <v>0.3132223043006093</v>
       </c>
       <c r="H10">
-        <v>0.02783403537167572</v>
+        <v>0.02668905155869883</v>
       </c>
       <c r="I10">
-        <v>0.01658186642785964</v>
+        <v>0.01483067120738735</v>
       </c>
       <c r="J10">
-        <v>0.2234862392916455</v>
+        <v>0.2253990059478213</v>
       </c>
       <c r="K10">
-        <v>0.1241576143884018</v>
+        <v>0.1153316269304607</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.08254653510851639</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.02552956623332214</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -893,51 +947,57 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>1.032682697882549</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.090878021340131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>1.092524772570755</v>
+      </c>
+      <c r="S10">
+        <v>1.012465275485539</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.231953419423348</v>
+        <v>3.124521651409793</v>
       </c>
       <c r="C11">
-        <v>0.8854214997153349</v>
+        <v>0.9089886415071646</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.267912298769943</v>
+        <v>1.260588188896278</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.2770944484269791</v>
+        <v>0.3058528786741022</v>
       </c>
       <c r="H11">
-        <v>0.04279956632689874</v>
+        <v>0.04164279986931163</v>
       </c>
       <c r="I11">
-        <v>0.0178036007365856</v>
+        <v>0.01593479528090569</v>
       </c>
       <c r="J11">
-        <v>0.2010501335507371</v>
+        <v>0.1717331270221791</v>
       </c>
       <c r="K11">
-        <v>0.1069086353076809</v>
+        <v>0.09852257402511633</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.07503510204915198</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.02135902011413293</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -946,51 +1006,57 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>1.135004751295384</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.9600027633119055</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>1.208962494374958</v>
+      </c>
+      <c r="S11">
+        <v>0.8646474059080873</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.223091707417268</v>
+        <v>3.114007956046407</v>
       </c>
       <c r="C12">
-        <v>0.8593540434493718</v>
+        <v>0.8740243407913226</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.7711514199652783</v>
+        <v>0.7650184803344047</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.2402600364420877</v>
+        <v>0.2825313438413986</v>
       </c>
       <c r="H12">
-        <v>0.07851310994715988</v>
+        <v>0.07741523673838202</v>
       </c>
       <c r="I12">
-        <v>0.0177257256443939</v>
+        <v>0.01583074926003025</v>
       </c>
       <c r="J12">
-        <v>0.1816484182793943</v>
+        <v>0.1463684308108242</v>
       </c>
       <c r="K12">
-        <v>0.09536801219155677</v>
+        <v>0.08858019700303466</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.07139517132512196</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.01777439497801758</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -999,51 +1065,57 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>1.207439874730966</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.8413044718114406</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1.286322837525304</v>
+      </c>
+      <c r="S12">
+        <v>0.7471226807837468</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.123508750028577</v>
+        <v>3.025923646772128</v>
       </c>
       <c r="C13">
-        <v>0.8136253478899391</v>
+        <v>0.8235539357813764</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.3952013423796501</v>
+        <v>0.3904153242977983</v>
       </c>
       <c r="F13">
         <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>0.2018868451253226</v>
+        <v>0.2393528218697227</v>
       </c>
       <c r="H13">
-        <v>0.1314785452493084</v>
+        <v>0.1304977303272494</v>
       </c>
       <c r="I13">
-        <v>0.01692542853108669</v>
+        <v>0.01516707702079234</v>
       </c>
       <c r="J13">
-        <v>0.1626097392756591</v>
+        <v>0.1384063049443611</v>
       </c>
       <c r="K13">
-        <v>0.08654920808068844</v>
+        <v>0.08235044755533938</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.06965344527283168</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.01439313516251595</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1052,51 +1124,57 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>1.262991946415866</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.7200366694671203</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>1.336856320730632</v>
+      </c>
+      <c r="S13">
+        <v>0.6433742839803216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.012216339747624</v>
+        <v>2.928276862850169</v>
       </c>
       <c r="C14">
-        <v>0.773802452248475</v>
+        <v>0.7821085456321839</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2049944207151952</v>
+        <v>0.2011159006379444</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.1746251790979159</v>
+        <v>0.2021380698007036</v>
       </c>
       <c r="H14">
-        <v>0.1790542200998857</v>
+        <v>0.1781722450274543</v>
       </c>
       <c r="I14">
-        <v>0.01613448765109116</v>
+        <v>0.01455273015171787</v>
       </c>
       <c r="J14">
-        <v>0.149527245905432</v>
+        <v>0.1385075155425213</v>
       </c>
       <c r="K14">
-        <v>0.08166393386904325</v>
+        <v>0.07947921520240797</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.06908429831855045</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.01219606986642408</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1105,51 +1183,57 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>1.29484990476783</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.6347821817456776</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>1.36048136988542</v>
+      </c>
+      <c r="S14">
+        <v>0.5759393877348344</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.964699841953973</v>
+        <v>2.886546185509417</v>
       </c>
       <c r="C15">
-        <v>0.7607822778025195</v>
+        <v>0.7693394942406826</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1677657289227064</v>
+        <v>0.1641365882681889</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.1671392929054747</v>
+        <v>0.1896159066479655</v>
       </c>
       <c r="H15">
-        <v>0.1909866262330553</v>
+        <v>0.1901431643806575</v>
       </c>
       <c r="I15">
-        <v>0.01587179385065873</v>
+        <v>0.01439001833342513</v>
       </c>
       <c r="J15">
-        <v>0.1461909684817542</v>
+        <v>0.1408633143796507</v>
       </c>
       <c r="K15">
-        <v>0.08080250961254265</v>
+        <v>0.07923383251685223</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.06916233036732322</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.01163769110827406</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1158,51 +1242,57 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>1.299364615825695</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.6118936571641171</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>1.361022382005572</v>
+      </c>
+      <c r="S15">
+        <v>0.5598904803175344</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.783031856042101</v>
+        <v>2.725814159489858</v>
       </c>
       <c r="C16">
-        <v>0.7215289158148721</v>
+        <v>0.7348582594581217</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1650946460221405</v>
+        <v>0.1619066184441778</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0.1605256779251505</v>
+        <v>0.1614148083098783</v>
       </c>
       <c r="H16">
-        <v>0.1761727537681566</v>
+        <v>0.1754800055175139</v>
       </c>
       <c r="I16">
-        <v>0.01440681340232608</v>
+        <v>0.01326865502430064</v>
       </c>
       <c r="J16">
-        <v>0.1458270628002865</v>
+        <v>0.1642486082768642</v>
       </c>
       <c r="K16">
-        <v>0.08444200032565963</v>
+        <v>0.08403601006754613</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.07156409372078132</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.0115347210840353</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1211,51 +1301,57 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>1.256879121792409</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.5969485043052316</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>1.302190653442466</v>
+      </c>
+      <c r="S16">
+        <v>0.5670655181093167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.702438211642686</v>
+        <v>2.652132928676906</v>
       </c>
       <c r="C17">
-        <v>0.7124292461805908</v>
+        <v>0.7291714678154335</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2505636728370533</v>
+        <v>0.2473091076368803</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.1696030305529206</v>
+        <v>0.1610815885869386</v>
       </c>
       <c r="H17">
-        <v>0.1376617573646399</v>
+        <v>0.1370288004874567</v>
       </c>
       <c r="I17">
-        <v>0.01371510302274537</v>
+        <v>0.01273977049569641</v>
       </c>
       <c r="J17">
-        <v>0.1524021343553699</v>
+        <v>0.1818195108863279</v>
       </c>
       <c r="K17">
-        <v>0.08976033803856076</v>
+        <v>0.0892935462984541</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.07401339629605896</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.01244451229649357</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1264,51 +1360,57 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>1.207885855728136</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.6298701471082779</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>1.247115597230831</v>
+      </c>
+      <c r="S17">
+        <v>0.6066032746028753</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.702320115629391</v>
+        <v>2.650609916243013</v>
       </c>
       <c r="C18">
-        <v>0.7268004538272237</v>
+        <v>0.7479709235332166</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.4851119533046884</v>
+        <v>0.4813211693619976</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.195015139431753</v>
+        <v>0.1809620693316418</v>
       </c>
       <c r="H18">
-        <v>0.08564598043407301</v>
+        <v>0.08500372221882202</v>
       </c>
       <c r="I18">
-        <v>0.01339604410023654</v>
+        <v>0.01240892460880438</v>
       </c>
       <c r="J18">
-        <v>0.1664459311816202</v>
+        <v>0.2002315718875636</v>
       </c>
       <c r="K18">
-        <v>0.09791721751356874</v>
+        <v>0.09647159050773091</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.07714013806877862</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.01457733441617126</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1317,51 +1419,57 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>1.146910519249857</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.7131196772802895</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>1.185628879765048</v>
+      </c>
+      <c r="S18">
+        <v>0.687560099744573</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.760981625869022</v>
+        <v>2.702408196006445</v>
       </c>
       <c r="C19">
-        <v>0.7642904850644356</v>
+        <v>0.7913583729985589</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.9205749304574056</v>
+        <v>0.9157643733663718</v>
       </c>
       <c r="F19">
         <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.2321653967788251</v>
+        <v>0.2142521226157399</v>
       </c>
       <c r="H19">
-        <v>0.04319525302800997</v>
+        <v>0.04247332700544604</v>
       </c>
       <c r="I19">
-        <v>0.01391826024858744</v>
+        <v>0.0128903938159155</v>
       </c>
       <c r="J19">
-        <v>0.1854094665713504</v>
+        <v>0.2194755516554139</v>
       </c>
       <c r="K19">
-        <v>0.1078550167869636</v>
+        <v>0.1047305699906289</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.08053756534127832</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.01760089408348975</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1370,51 +1478,57 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>1.086897813195392</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.8316126496749234</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>1.128412528122581</v>
+      </c>
+      <c r="S19">
+        <v>0.7975933792027519</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.995503981315608</v>
+        <v>2.915011774703032</v>
       </c>
       <c r="C20">
-        <v>0.8585120594328828</v>
+        <v>0.8955543362842491</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.898576310027991</v>
+        <v>1.891076480728032</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.3041278718490332</v>
+        <v>0.2883930704502546</v>
       </c>
       <c r="H20">
-        <v>0.02591540043084706</v>
+        <v>0.02489135703225376</v>
       </c>
       <c r="I20">
-        <v>0.01605411483630892</v>
+        <v>0.01467658553449436</v>
       </c>
       <c r="J20">
-        <v>0.2190798180397024</v>
+        <v>0.2392768308260855</v>
       </c>
       <c r="K20">
-        <v>0.1236220600760358</v>
+        <v>0.1163775180204905</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.0841027138923689</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.02398299933557269</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1423,51 +1537,57 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>1.021445830360705</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.054858449611032</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>1.073713521140007</v>
+      </c>
+      <c r="S20">
+        <v>0.9929343544409051</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.37687081561478</v>
+        <v>3.247820192237157</v>
       </c>
       <c r="C21">
-        <v>0.9590259393450253</v>
+        <v>0.9876362884381535</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.223006899054226</v>
+        <v>2.212627520029599</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.3414476684990717</v>
+        <v>0.3850084162765341</v>
       </c>
       <c r="H21">
-        <v>0.03263731846508788</v>
+        <v>0.03115955500093026</v>
       </c>
       <c r="I21">
-        <v>0.01953468119125645</v>
+        <v>0.01740254863225665</v>
       </c>
       <c r="J21">
-        <v>0.2319928749581095</v>
+        <v>0.1777733307165121</v>
       </c>
       <c r="K21">
-        <v>0.1230171648770728</v>
+        <v>0.1096349022833465</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.07841885015225891</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.02713655868772413</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1476,51 +1596,57 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>1.06177349860765</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.161328564773754</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>1.14470051862277</v>
+      </c>
+      <c r="S21">
+        <v>1.030403532091128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.623875201583814</v>
+        <v>3.460919268592875</v>
       </c>
       <c r="C22">
-        <v>1.018695386753052</v>
+        <v>1.039885750922394</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2.383735285177352</v>
+        <v>2.371495589402969</v>
       </c>
       <c r="F22">
         <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.3644159070130826</v>
+        <v>0.4550815698799653</v>
       </c>
       <c r="H22">
-        <v>0.03691923045090162</v>
+        <v>0.03512939651219948</v>
       </c>
       <c r="I22">
-        <v>0.02166309289708668</v>
+        <v>0.01893496442596732</v>
       </c>
       <c r="J22">
-        <v>0.2398241969061843</v>
+        <v>0.1431674026740808</v>
       </c>
       <c r="K22">
-        <v>0.1227518616201273</v>
+        <v>0.1051153246215009</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.07491871935214345</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.0293135614429989</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1529,51 +1655,57 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>1.09001350979598</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.226613615756008</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>1.19457877611795</v>
+      </c>
+      <c r="S22">
+        <v>1.047166725537153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.496202341834419</v>
+        <v>3.354716759749067</v>
       </c>
       <c r="C23">
-        <v>0.9839761501621638</v>
+        <v>1.011306548194824</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.297942890438463</v>
+        <v>2.286803459654337</v>
       </c>
       <c r="F23">
         <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.3533640863549152</v>
+        <v>0.4111082839176419</v>
       </c>
       <c r="H23">
-        <v>0.03461800514858737</v>
+        <v>0.0330114270608779</v>
       </c>
       <c r="I23">
-        <v>0.02027756933722369</v>
+        <v>0.0178243977277166</v>
       </c>
       <c r="J23">
-        <v>0.2362573129074548</v>
+        <v>0.1671502769232447</v>
       </c>
       <c r="K23">
-        <v>0.1235448361646938</v>
+        <v>0.1085434640744332</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.07707796049337201</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.0286057614798132</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1582,51 +1714,57 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>1.072402595195527</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.195611843802709</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>1.162980166172929</v>
+      </c>
+      <c r="S23">
+        <v>1.047729933519264</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.005120983647657</v>
+        <v>2.924066086923744</v>
       </c>
       <c r="C24">
-        <v>0.8576598208692587</v>
+        <v>0.8952863832859919</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1.974362105669385</v>
+        <v>1.966697847211094</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.3104846227079463</v>
+        <v>0.2939318054817051</v>
       </c>
       <c r="H24">
-        <v>0.02640880492611508</v>
+        <v>0.02536965113396628</v>
       </c>
       <c r="I24">
-        <v>0.01571781762134705</v>
+        <v>0.01422925906582773</v>
       </c>
       <c r="J24">
-        <v>0.2222944969571472</v>
+        <v>0.2428874747574028</v>
       </c>
       <c r="K24">
-        <v>0.1260451614843845</v>
+        <v>0.118488537043449</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.08494384131810406</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.02476474134783402</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1635,51 +1773,57 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>1.011223387704533</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.075068630755766</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>1.063325175820012</v>
+      </c>
+      <c r="S24">
+        <v>1.012158211147153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.473624492715714</v>
+        <v>2.419201641358711</v>
       </c>
       <c r="C25">
-        <v>0.7222284484530519</v>
+        <v>0.746849668361051</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.627663295587354</v>
+        <v>1.622232967325488</v>
       </c>
       <c r="F25">
         <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.2661487218716161</v>
+        <v>0.2472726356170156</v>
       </c>
       <c r="H25">
-        <v>0.01850991178785111</v>
+        <v>0.01783728824882935</v>
       </c>
       <c r="I25">
-        <v>0.01141239934960492</v>
+        <v>0.01062149872785145</v>
       </c>
       <c r="J25">
-        <v>0.2083740790411568</v>
+        <v>0.2399567946421968</v>
       </c>
       <c r="K25">
-        <v>0.1299265972477848</v>
+        <v>0.1248696242427716</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.09264074657900423</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.01990625087990239</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1688,10 +1832,16 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.9480396262053716</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>0.9514706595555822</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.9831749767019744</v>
+      </c>
+      <c r="S25">
+        <v>0.9130190311763045</v>
       </c>
     </row>
   </sheetData>
